--- a/dataset_testing/dataset_for_testing.xlsx
+++ b/dataset_testing/dataset_for_testing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/Desktop/github/Athina_AI_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/Desktop/github/Athina_AI_project/dataset_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9960F030-BF0D-904F-9967-51F61CF47BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5546C147-A3DC-0046-95D8-4ED0C1E041C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{2C7920E7-42B5-3442-86F1-F4BF7B70CCCA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{2C7920E7-42B5-3442-86F1-F4BF7B70CCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,122 +36,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>question</t>
   </si>
   <si>
-    <t>contexts</t>
-  </si>
-  <si>
     <t>ground_truth</t>
   </si>
   <si>
     <t>What happens if you don't give accurate info on car modifications as per policy?</t>
   </si>
   <si>
-    <t>['Other conditions you need to know about\nFollowing the policy terms\nWe‚Äôll only provide the cover set out in this policy\nif you keep to all the terms of the policy.\nThis includes Guaranteed Hire Car Plus or Motor \nLegal Cover if you have these covers.\nProviding accurate information\nYou must ensure that all information given \nto us is correct and complete to the best of your knowledge at all times. This includes information about all drivers under the policy\nor modifications to your car.\nIf you don‚Äôt provide correct and complete information or inform us of any changes, this could invalidate your policy, increase \nyour premium or mean we don‚Äôt pay claims in full or at all. \nTaking care of your car\nYou and any person who is covered by this \npolicy must do all of the following:\n&gt;Make sure your car is roadworthy.\n&gt;Take all reasonable steps to protect your car\nand its contents from loss or damage.\n&gt;Make sure any property left in an open or \nconvertible car is in a locked boot or locked glove compartment.\n&gt;Allow us to examine your car at any \nreasonable time if we ask you.\nModifications to your car\nModifications are changes to your car‚Äôs \nstandard specification, including optional \nextras.\nIf you wish to modify your car, you must tell us \nwhat modifications you want to make, and we \nmust agree to them beforehand. Modifications include changes to the \nappearance or the performance of your car, \nincluding wheels, suspension, bodywork, engine and any additional software features (excluding those provided free as software updates by the manufacturer). This is not a complete list. \nIf you don‚Äôt provide correct and complete \ninformation or inform us of any changes, this could invalidate your policy or mean we don‚Äôt \npay claims in full or at all.Fraud\nYou must be honest in your dealings with us at \nall times.\nWe won‚Äôt pay a claim that is in any way \nfraudulent, false or exaggerated. \nIf you, any person insured under this policy, \nor anyone acting on your behalf attempts to \ndeceive us, or knowingly makes a fraudulent, false or exaggerated claim, we may:\n&gt;Cancel your policy.\n&gt;Reject your claim and any following claims.\n&gt;Keep any premium you have paid.\nWhat happens if we discover fraud\nIf we discover fraud, we have the right to:\n&gt;Cancel any other products you hold with \nU K Insurance Limited.\n&gt;Cancel this policy, if the fraud happened \nunder any other policy you hold with U K Insurance Limited. \n&gt;Share information about your behaviour with other organisations to prevent further fraud. \nWe may also involve the relevant authorities who can bring criminal proceedings. \nOther insurance\nIf any loss, damage or liability is also covered \nby another insurance policy, we won‚Äôt cover more than our share of the claim, unless you‚Äôre claiming for Personal accident (see ‚ÄòPersonal accident‚Äô on page 21).\nPeople involved in this contract\nThis policy is a contract between the \npolicyholder and U K Insurance Limited. Nobody \nelse has any rights they can enforce under it, except under the Road Traffic Act or anywhere \nelse under applicable law.\nCar registration\nYour car must be registered within the \nterritorial limits.\nPage 36']</t>
-  </si>
-  <si>
     <t>If you don‚Äôt provide correct and complete information or inform us of any changes regarding car modifications, this could invalidate your policy or mean we don‚Äôt pay claims in full or at all.</t>
   </si>
   <si>
     <t>What changes need to be communicated to the insurance company for car sharing?</t>
   </si>
   <si>
-    <t>['Car sharing\nThe policy covers anyone insured to drive \nyour car as part of a car sharing arrangement \n(carrying passengers for payment). This is so long as: \n&gt;Your car isn‚Äôt made or adapted to carry more \nthan 8 passengers and a driver. \n&gt;You‚Äôre not carrying the passengers as part of a business. \n&gt;You‚Äôre not making a profit from the passengers‚Äô payments or making a profit from allowing someone to drive.\n&gt;You‚Äôre not renting your car out or using a \npeer-to-peer hire scheme to do so. \nIf you‚Äôre not sure whether we‚Äôll cover your car if \nit‚Äôs used as part of a car sharing arrangement, please get in touch.\nWhen we can act on your behalf\nWe‚Äôre entitled to do either of the following: \n&gt;Take over and carry out the negotiation, \ndefence or settlement of any claim in your name, or in the name of any other person covered by this policy. \n&gt;Start legal proceedings in your name, or in the name of any other person connected to this policy. This can be for your benefit or \nour own benefit.Telling us about changes\nBefore your cover starts\nYou must tell us if anything has changed since \nyou received your quote. For example, you must tell us if:\n&gt;Anything about your car changes.\n&gt;You or any other driver have any claims \nor convictions that you haven‚Äôt already told us about.\n&gt;There are any changes to how your car is \nused, for example if you change from social, domestic and pleasure use to business use.\n&gt;There are any modifications made to \nyour car (see ‚ÄòModifications to your car‚Äô on page 36).\n&gt;You want to add another driver to the policy, \nor make any other change to who can drive your car.\n&gt;You want to change to a higher level of cover, for example from Third Party, Fire and Theft to Comprehensive.\nAfter your cover starts\nYou must tell us as soon as possible if:\n&gt;You change the address where your car is \nnormally kept overnight.\n&gt;Anyone covered by the policy changes their \noccupation.\n&gt;Anyone covered by the policy passes their \ndriving test.\n&gt;Any contact details change, for example, \nyour email address.\n&gt;Any other policyholder details change. \nYou can see the details we have on your car insurance details.\nThese changes may mean we need to increase or reduce the premium, or in some cases cancel your policy.\nPage 37How the policy works\nHow the policy works']</t>
-  </si>
-  <si>
     <t>Changes that need to be communicated to the insurance company for car sharing include anything about your car changing, any claims or convictions by you or other drivers that were not previously disclosed, changes in how your car is used (e.g., switching from personal to business use), modifications made to your car, adding another driver to the policy, changing to a higher level of cover, changing the address where your car is kept overnight, changes in occupation of anyone covered by the policy, passing of a driving test by anyone covered, changes in contact details (e.g., email address), and changes in other policyholder details.</t>
   </si>
   <si>
     <t>For DriveSure assistance, what contact info should be used for windscreen claims with Essentials, Comprehensive, or Comprehensive Plus cover?</t>
   </si>
   <si>
-    <t>['Need to claim?\n0345 878 6261\nWindscreen claims\n0800 328 9150\nIf you have Essentials, Comprehensive \nor Comprehensive Plus cover\nMotor legal helpline\n0345 246 2408\nIf you have Motor Legal Cover\nDriveSure help\nEmail\nSupport@churchill.com\nCall\n0345 878 6375\nIf you have a question about telematicsHelp with anything else\nFAQs\nchurchill.com/faqs\nCall\n0345 877 6680\nIf you would like a Braille, large print or audio version \nof your documents, please let us know.\nChurchill insurance policies are underwritten by U K Insurance Limited, Registered office: The Wharf, Neville Street, Leeds, \nLS1 4AZ. Registered in England and Wales No.1179980. U K Insurance Limited is authorised by the Prudential Regulation \nAuthority and regulated by the Financial Conduct Authority and the Prudential Regulation Authority. Calls may be recorded.\nB4C CH M PB 0923How to get in touch \n']</t>
-  </si>
-  <si>
     <t>Call 0800 328 9150</t>
   </si>
   <si>
     <t>What damage from misfuelling is covered in Comprehensive and Comprehensive Plus plans?</t>
   </si>
   <si>
-    <t>['Page 18Damage to your car\nWe‚Äôll put things right if your car is damaged.\nIf you‚Äôre on:\nEssentials\nComprehensive\nComprehensive Plus\nthe cover in this section depends on \nthe type of insurance you have.\nThis cover is not included with: \nThird Party, Fire and Theft\nAccidental damage to your car\nIncluded with:\nEssential Comp Comp+\nIf your car is accidentally damaged, we can \nchoose to either:\n&gt;Repair ‚Äì we‚Äôll repair the damage ourselves \nor pay to repair it.\n&gt;Replace ‚Äì we‚Äôll replace whatever is lost or damaged, if that‚Äôs more cost-effective.\n&gt;Repay ‚Äì we‚Äôll settle your claim by sending a payment.\n‚ÄòHow it works‚Äô on page 6 tells you how we manage repairs and replacements.\nChild car seats\nIncluded with:\nEssential Comp Comp+\nIf you have a child car seat fitted to your car\nand your car  is involved in an accident, we‚Äôll \narrange a replacement, or cover you for the cost of replacing the child car seat with a new one of a similar standard, even if there is no apparent damage. You may be required to provide proof of ownership as part of the claim.\nIn-car entertainment fitted in your \ncar when it was made\nIncluded with:\nEssential Comp Comp+If your car is damaged, we‚Äôll also replace any \ndamaged in-car entertainment equipment that \nwas permanently fitted in your car when it was \nmade, as long as we haven‚Äôt sent a payment to \ncover replacing your car.\nIn-car entertainment fitted in your \ncar after it was made\nIncluded with:\nComp Comp+\nIf your car is damaged, we‚Äôll also replace any \ndamaged in-car entertainment equipment that \nwas permanently fitted in your car after it was \nmade, as long as we haven‚Äôt sent a payment to \ncover replacing your car.\nRemovable electronic equipment\nIncluded with:\nComp Comp+\nIf your car is damaged, we‚Äôll also replace any \ndamaged removable electronic equipment, \nas long as we haven‚Äôt sent a payment to cover replacing your car.\nMisfuelling (using the wrong fuel)\nIncluded with:\nComp Comp+\nWe‚Äôll cover any damage to your car caused by \nmisfuelling .\nYou‚Äôre not covered for\n8We won‚Äôt cover the cost of draining, flushing \nor replacing the fuel if the wrong fuel is put in your car. \nHow much am I covered for?\nWe‚Äôll provide cover up to the amounts shown in ‚ÄòWhat your cover includes‚Äô on page 8.\nYou‚Äôre not covered for\n8We won‚Äôt cover loss or damage caused by anyone who is convicted for driving while under the influence of drink or drugs at the time of the accident.Section 4: Accidental damage']</t>
-  </si>
-  <si>
     <t>We'll cover any damage to your car caused by misfuelling in Comprehensive and Comprehensive Plus plans.</t>
   </si>
   <si>
     <t>What term refers to car modifications including appearance and performance changes?</t>
   </si>
   <si>
-    <t>['Glossary\nLoss of any limb A limb severed at or above the \nwrist or ankle, or the total and irrecoverable loss \nof use of a hand, arm, foot or leg.\nMain driver The person you declared was the \nmain user of your car, and who‚Äôs shown as the \nmain driver on your car insurance details. \nMarket value The cost of replacing your car\nwith another of the same make and model, and \nof a similar age, mileage, and condition at the time of the accident or loss.\nModifications Any changes to your car‚Äôs \nstandard specification, including optional \nextras. \nModifications include changes to the \nappearance or the performance of your car, \nincluding wheels, suspension, bodywork and engine. Please note this is not a complete list. Modifications include changes made to your \ncar by a previous owner.\nNCD owner The person who has earned the \nNo Claim Discount (NCD) that is in use on this \npolicy.\nPartner Your husband, wife, or civil partner, or \nsomeone you‚Äôre living with as if you‚Äôre married \nto them.\nPeriod of Insurance The length of time you \nhave insurance cover under this policy. You can \nfind this on your certificate of motor insurance\nand car insurance details.\nPolicy The policy is made up of:\n&gt;This booklet.\n&gt;Your car insurance details.\n&gt;Your certificate (or certificates) of motor \ninsurance.\n&gt;The Green Flag breakdown cover policy \nbooklet ‚Äì where this applies. \n&gt;The DriveSure terms and conditions ‚Äì where they apply. \nPolicyholder The person named as the \npolicyholder on your car insurance details.Removable electronic equipment Electronic \nequipment that is designed to be fitted to, and used in, your car, which can be removed when \nnot in use. We do not cover speed assessment detection devices or any personal portable electronic or entertainment equipment (this may be covered under the Personal Belongings cover in Section 6 of this policy).\nRoad Traffic Act The Acts, laws and regulations \nthat cover driving or using cars in:\n&gt;Great Britain.\n&gt;Northern Ireland.\n&gt;the Channel Islands.\n&gt;the Isle of Man.\nTerms The terms, exclusions, conditions and \nlimits that apply to the policy.\nTerritorial limits&gt;Great Britain.\n&gt;Northern Ireland.\n&gt;the Channel Islands.\n&gt;the Isle of Man.\nTrack day When your car is driven on a racing \ntrack, on an airfield or at an off-road event.\nTrailer A trailer that has been specially built to \nbe towed by a car.Vandalism Damage caused by a malicious \nand deliberate act. Written off When your car is so badly \ndamaged that:\n&gt;it‚Äôs no longer roadworthy, or \n&gt;the cost to fix it would be uneconomical, \nbased on its market value.\nYour car The car described in your car \ninsurance details. This includes your car‚Äôs accessories and spare parts if they are:\n&gt;On your car or in it.\n&gt;In your locked private garage.\n&gt;Plugged into your car.\nPage 5']</t>
-  </si>
-  <si>
     <t>Modifications include changes to the appearance or the performance of your car, including wheels, suspension, bodywork and engine.</t>
   </si>
   <si>
     <t>What will the insurance company do if your car is stolen or damaged beyond repair, considering the age of the car and policy conditions?</t>
   </si>
   <si>
-    <t>['Page 22New car replacement\nIncluded with:\nComp Comp+\nIf your new car is stolen and not recovered, or \nwritten off, we‚Äôll replace it with one of the same make and model.\nWhen you‚Äôll get this cover\nWe‚Äôll provide this cover so long as:\n&gt;You‚Äôre the first and only registered keeper.\n&gt;If you have Comprehensive cover, your \ncar is less than 1 year old when it‚Äôs stolen or \ndamaged.\n&gt;If you have Comprehensive Plus cover, your \ncar is less than 2 years old when it‚Äôs stolen or damaged. \nWhat we‚Äôll do\nWe‚Äôll replace your car with one of the same \nmake and model if it has:\n&gt;Been reported as stolen to the police and has \nnot been found.\n&gt;Suffered damage that this policy covers, and \nthe cost of repairing it is more than 60% of the last UK list price (including taxes).\nWe can only do this if a replacement car is available in the UK, and so long as anyone else with an interest in your car agrees.\nIf a suitable replacement car is not available, or your car was not supplied as new in the UK, \nwe‚Äôll pay you the market value of your car at \nthe time it was stolen or damaged. We‚Äôll take any excess off the amount we pay you. If we \nsettle a claim this way, the lost or damaged car becomes our property, and you‚Äôll need to send us the registration document.\nHotel expenses\nIncluded with:\nComp Comp+\nIf you cannot drive your car after an accident or \nloss that‚Äôs covered under sections 2 or 4 of this policy, we‚Äôll cover up to the amounts shown in ‚ÄòWhat your cover includes‚Äô on page 8\n.\nThe limit is the total we‚Äôll pay for everyone in your car.Personal belongings\nIncluded with:\nComp Comp+\nWe‚Äôll pay for personal belongings if they‚Äôre lost or damaged by fire, theft, attempted theft or accident while they‚Äôre in or on your car. We‚Äôll \ncover up to the amounts shown in ‚ÄòWhat your cover includes‚Äô on page 8.\nIf you ask us to pay someone else, we‚Äôll have no \nfurther responsibility to you once we‚Äôve done this.\nYou‚Äôre not covered for\n8Money.\n8Credit or debit cards.\n8Stamps.\n8Tickets.\n8Vouchers.\n8Documents.\n8Securities (such as share or Premium \nBond certificates).\n8Goods or samples for a trade or business.\n8Any property that‚Äôs insured under any other policy.\nVandalism Promise\nIncluded with:\nComp Comp+\nIf you claim for damage to your car that‚Äôs \na result of vandalism, this won‚Äôt affect the \nNo Claim Discount on this policy.\nWhat happens if you claim\nIf you claim, you‚Äôll need to:\n&gt;Pay the excess that applies to accidental \ndamage claims when the car is unattended.\n&gt;Report the vandalism to the police. To do this, \ncall 101 (unless it‚Äôs an emergency).\n&gt;Get a crime reference number from the \npolice and give it to us.\nUntil we have the crime reference number, you may temporarily lose the No Claim Discount on this policy. \nYou‚Äôre not covered for\n8Our Vandalism Promise doesn‚Äôt cover \ndamage caused by another vehicle.Section 6: Personal benefits continued']</t>
-  </si>
-  <si>
     <t>If your car is stolen or damaged beyond repair, the insurance company will replace it with a car of the same make and model if it meets certain conditions. For Comprehensive cover, the car must be less than 1 year old, and for Comprehensive Plus cover, the car must be less than 2 years old. If a replacement car is not available or your car was not supplied as new in the UK, the insurance company will pay you the market value of your car at the time it was stolen or damaged, deducting any excess. In this case, the lost or damaged car becomes the property of the insurance company.</t>
   </si>
   <si>
     <t>How does the insurance policy cover car roof vs. windscreen damage?</t>
   </si>
   <si>
-    <t>['Windscreen damage\nWe‚Äôll help put things right if the glass in your \ncar is accidentally damaged.\nThis cover is included with: \nEssentials\nComprehensive\nComprehensive Plus\nIt‚Äôs not included with: \nThird Party, Fire and Theft\nWhat we‚Äôll do\nWe‚Äôll pay to: \n&gt;Replace or repair accidentally broken glass in \nthe windscreen, sunroof or windows of your car. \n&gt;Repair any scratching to the bodywork caused by the broken glass, so long as there wasn‚Äôt any other loss or damage resulting from the same incident. \n&gt;Recalibrate your car‚Äôs ADAS (Advanced \nDriver Assistance System) where this relates to the repair or replacement of your car‚Äôs \nwindscreen. \n&gt;If your car has a folding roof, we‚Äôll replace the \nroof and rear windscreen assembly together, if this is more cost-effective than replacing the glass alone.How much am I covered for?\nWe‚Äôll provide cover up to the amounts shown in ‚ÄòWhat your cover includes‚Äô on page 8.\nYou‚Äôre not covered for\n8Any other losses covered under another section of this policy for the same incident, \nsuch as dents to the bodywork.\n8Damage caused by vandalism (this may \nbe covered under Section 4: Accidental Damage).\nIf your claim is only for accidental damage to your car‚Äôs windscreen, sunroof or windows, you won‚Äôt lose the No Claim Discount on this policy.\nYou‚Äôll need to pay an excess for each \nincident you claim for.Section 5: Windscreen damage\nPage 20']</t>
-  </si>
-  <si>
     <t>The insurance policy covers the replacement of the roof and rear windscreen assembly together if it is more cost-effective than replacing the glass alone. It also covers the repair of accidentally broken glass in the windscreen, sunroof, or windows of the car.</t>
   </si>
   <si>
     <t>What benefits does the Guaranteed Hire Car Plus section offer if Motor Legal Cover is included in the car insurance policy?</t>
   </si>
   <si>
-    <t>['Third Party, \nFire and Theft Essentials ComprehensiveComprehensive \nPlus\nSection 7: Motor Legal Cover\nMotor Legal CoverCheck your car insurance details\nto see if this cover is included4 Included\nOverall limit for all claims, \nincluding appeals or counterclaims, to do with the same incident 4 ¬£100,000 if this cover is included 4 ¬£100,000\nRoad traffic accident 4 ¬£100,000 if this cover is included 4 ¬£100,000\nMotor contract dispute 4 ¬£100,000 if this cover is included 4 ¬£100,000\nMotoring prosecution defence 4 ¬£100,000 if this cover is included 4 ¬£100,000\nSection 8: Guaranteed \nHire Car Plus\nGuaranteed Hire Car Plus\n8Optional ‚Äì check your car \ninsurance details4 Included\nAmount of time you can \nhave the car for if you use an approved repairerDuration of repair\nAmount of time you can have the car for if you use a different repairer21 days\nTravel costs¬£50 per day, \nup to a total of ¬£500 per claim\nSection 9: Protected \nNo Claim Discount \nProtected No Claim \nDiscount (NCD)Optional ‚Äì check your car insurance details\nMaximum number of claims allowed2 claims in 3 yearsWhat your cover includes continued\nPage 10']</t>
-  </si>
-  <si>
     <t>The Guaranteed Hire Car Plus section offers a duration of repair for an approved repairer and a different repairer, along with travel costs of ¬£50 per day up to a total of ¬£500 per claim if Motor Legal Cover is included in the car insurance policy.</t>
   </si>
   <si>
     <t>Where are automated cars in Great Britain covered for accidents according to the policy?</t>
   </si>
   <si>
-    <t>['Page 13Section 1: Liability\nLiability for automated cars \nin Great Britain\nWe‚Äôll provide cover for accidents caused \nby your automated car when it is lawfully driving itself on a road or other public place in Great Britain.\nIf you‚Äôre on:\nThird Party, Fire and Theft\nEssentials\nComprehensive\nComprehensive Plus\nthe cover in this section depends on the type of car you have.\nDoes this cover apply to my car?\nThe cover in this sub-section will only apply \nto your car if it has been identified on the Secretary of State‚Äôs list of motor vehicles that may safely drive themselves. \nIf your car isn‚Äôt identified on the list, the cover \nin this section won‚Äôt apply to your policy.\nYou can find out more at \nchurchill.com/help-and-supportWords with a specific meaning \nWhen we use these words or terms in this sub-section they have these specific meanings (unless we say differently).\nInsured person The policyholder and anyone \nelse insured by this policy to drive your \nautomated car with your permission. \nWhere am I covered? \nWe‚Äôll only provide the cover in this sub-section \nin Great Britain, which is:\n&gt;England.\n&gt;Scotland.\n&gt;Wales.\nThis is because this sub-section has been \nwritten to comply with the laws of Great Britain.\nIf your automated car is involved in an accident \nwhen it is lawfully driving itself outside Great \nBritain (including when it is lawfully driving itself in Northern Ireland, the Channel Islands or the Isle of Man), the rest of your policy will apply.\nWhat we‚Äôll do\nWe‚Äôll provide cover: \nIf your car causes an accident \nWe‚Äôll provide cover for an accident caused by \nyour automated car when it is lawfully driving \nitself on a road or other public place in Great Britain and:\n&gt;injures or kills any person (including the \nperson in charge of your automated car), \nand/or\n&gt;damages property.\nAs long as you look after your car‚Äôs software \nYou must keep the software of your automated \ncar up to date and you must not modify it other \nthan in accordance with any manufacturer‚Äôs instruction. ']</t>
-  </si>
-  <si>
     <t>Automated cars in Great Britain are covered for accidents when they are lawfully driving themselves on a road or other public place in Great Britain.</t>
   </si>
   <si>
     <t>What types of pollution are not covered by insurance unless caused by a sudden accident?</t>
   </si>
   <si>
-    <t>['Page 34If your car is removed or seized by an authority\n 8We won‚Äôt cover any loss or damage caused \nby a government agency or other authority that legally takes, keeps or destroys your car.\n 8 If you‚Äôre driving or using another car and it‚Äôs \ntaken by, or on behalf of, any government or other authority, we won‚Äôt provide cover to get it released.\nContracts\n 8We won‚Äôt cover any liability under any separate agreement or contract you‚Äôve made, unless you‚Äôd have been responsible even if that agreement or contract didn‚Äôt exist.\nRadioactivity\n 8We won‚Äôt cover any loss or damage to property, any direct or indirect loss, or any expense, or any liability caused, or contributed to, by:\n‚Ä¢ Ionising radiation or radioactive contamination from nuclear fuel or waste.\n‚Ä¢ Radioactive, toxic, explosive or other dangerous properties of nuclear equipment or its nuclear parts.\nPollution\n 8We won‚Äôt cover any loss, damage, liability  \nor injury caused by identifiable pollution  \nor contamination, unless it‚Äôs come from  \na sudden and unexpected accident.War\n 8We won‚Äôt cover any injury, loss, damage or liability caused by war, invasion, revolution, military or usurped power or arising from Government Action or a similar event  \nexcept as is strictly required under the  \nRoad Traffic Act.\n Government Action includes:\n‚Ä¢ Martial law, confiscation, nationalisation, requisition or destruction or damage of property.\n These actions carried out by or under the \norder of:\n‚Ä¢ Any government or public or local authority.\n It also includes any action taken in:\n‚Ä¢ Controlling, preventing, suppressing any activity relating to war.\nRiot\n 8We won‚Äôt cover any loss or damage to your car or property caused by riot or civil commotion outside Great Britain, the Isle  \nof Man or the Channel Islands. \nUse on airfields\n 8We won‚Äôt cover any loss, damage, liability or injury caused by using your car in any area \nwhere aircraft normally operate, such as any area where aircraft take off, land and/or park.\nSpeed assessment equipment\n 8We won‚Äôt cover any loss or damage to a speed assessment detection device.\nUse on N√ºrburgring Nordschleife\n 8We won‚Äôt cover any loss, damage, liability or injury that happens when your car is \nbeing used or driven on the N√ºrburgring Nordschleife in Germany, unless strictly required by German road traffic laws.Losses we don‚Äôt cover continued']</t>
-  </si>
-  <si>
     <t>Identifiable pollution or contamination is not covered by insurance unless it is caused by a sudden and unexpected accident.</t>
   </si>
   <si>
     <t>What does the insurance policy cover in terms of car security, stolen keys, and driving abroad?</t>
   </si>
   <si>
-    <t>['Page 16Theft of car keys \nWe‚Äôll cover your stolen car keys.\nThis cover is included with: \nEssentials\nComprehensive\nComprehensive Plus\nThis cover is not included with: \nThird Party, Fire and Theft\nWhat we‚Äôll do\nWe‚Äôll replace your stolen car keys and the locks \nthey fit, including any locksmith charges.\nYou must take all reasonable steps to protect \nyour car keys from theft.\nIf your keys are stolen, you‚Äôll need to pay the theft excess. You‚Äôll need to report this theft to \nthe police and provide us with the crime reference number.\nCar security\nWe‚Äôll provide cover to reprogram immobilisers, \ninfrared handsets and alarms.\nCar hire\nIf you can‚Äôt drive your car because of stolen car \nkeys and have our Guaranteed Hire Car Plus \ncover, we‚Äôll extend this cover while you‚Äôre unable to use your car. See ‚ÄòSection 8: Guaranteed Hire \nCar Plus‚Äô on page 28.Driving abroad\nWhile driving your car abroad, we‚Äôll cover your \ncar keys if they are stolen when:\n&gt;You have Comprehensive cover and you‚Äôve \nadded Foreign Use Extension to your cover before you travel (this will be shown on your car insurance details).\n&gt;You have Comprehensive Plus cover, where 90 days of Foreign Use Extension is included for each insured period. \nYou‚Äôll need to replace your car keys and send \nthe receipts to us. We‚Äôll then reimburse the costs up to the amounts shown on page 8.\nYou‚Äôre not covered for\n8There‚Äôs no cover if anyone in your family or anyone living or staying at your home address takes your keys without your permission, unless you‚Äôve reported it to the police and have a crime reference number.\n8We don‚Äôt cover any reduction in your car‚Äôs \nmarket value because of stolen keys.\n8We don‚Äôt cover losses that aren‚Äôt directly due to your keys being stolen. For example, we don‚Äôt cover loss of use or earnings.Section 2: Fire and theft continued']</t>
-  </si>
-  <si>
     <t>The insurance policy covers the replacement of stolen car keys and the locks they fit, including any locksmith charges. It also provides cover to reprogram immobilisers, infrared handsets, and alarms. While driving abroad, the policy covers stolen car keys if you have Comprehensive cover with the Foreign Use Extension added before traveling or if you have Comprehensive Plus cover with 90 days of Foreign Use Extension included for each insured period. In both cases, you must replace the car keys and send the receipts to be reimbursed up to the specified amounts.</t>
   </si>
   <si>
     <t>How many claims can be made in 3 years with Protected No Claim Discount?</t>
   </si>
   <si>
-    <t>['Page 30\nAbout Protected No Claim Discount\nThe NCD owner will keep their No Claim \nDiscount (NCD) if you make a claim, unless you make more than 2 claims in 3 years. \nProtected NCD doesn‚Äôt guarantee your \npremium ‚Äì this may still increase if a claim is made.\nThis cover an optional extra for: \nThird Party, Fire and Theft\nEssentials\nComprehensive\nComprehensive Plus\nCheck your car insurance details to see if this cover is included.How it works\nOnce the NCD owner has a minimum of four \nyears‚Äô worth of NCD, you may be able to protect it by paying an additional premium. We‚Äôll let you know when you‚Äôre able to do this. \nProtected NCD means that you can make up \nto 2 claims in 3 years of insurance in a row, and this won‚Äôt affect the NCD on this policy.\nFor more information, including a table showing what happens to the NCD on this policy if you \nclaim, please see your car insurance details. Section 9: Protected No Claim Discount']</t>
-  </si>
-  <si>
     <t>Up to 2 claims can be made in 3 years with Protected No Claim Discount.</t>
   </si>
   <si>
@@ -164,18 +125,12 @@
     <t>What happens when a policy is cancelled in terms of refunds and charges, and how does reporting incidents impact policy validity?</t>
   </si>
   <si>
-    <t>['If you‚Äôve made a claim, and/or used your Green \nFlag cover, before the cancellation or removal happens\nFor the policy and car insurance cover options, \ne.g. Protected No Claim Discount:\n&gt;We will not refund any car insurance \npremium if you have made a car insurance claim or if one has been made against you during the period of cover (regardless of whether you pay annually or by monthly instalments under a credit agreement).\n&gt;If you pay by instalments under a credit agreement, you must pay to us (1) all instalment payments that have already fallen due under the credit agreement and remain unpaid, and (2) the total remaining balance under the credit agreement.\n&gt;If we agree to pay your claim and you have not paid the amounts due to us under (1) and (2) above, we may reduce the amount that we pay in settlement of your claim by the amount that you owe us. Alternatively, we may write to you asking you for the full payment.\nFor Green Flag breakdown cover:\n&gt;We will not refund any Green Flag breakdown cover premium if you have made a Green Flag breakdown cover claim during the period of cover (regardless of whether you pay annually or by monthly instalments under a credit agreement).\n&gt;If you pay by instalments under a credit agreement you must pay to us (1) all instalment payments that have already fallen due under the credit agreement and remain unpaid, and (2) the total remaining balance under the credit agreement.\nPlease note\n&gt;It‚Äôs your responsibility to inform anyone \ninsured under this policy that it has been \ncancelled.\n&gt;If you cancel your Direct Debit payments, this won‚Äôt cancel the policy. We‚Äôll ask you to pay \nthe money you owe. \n&gt;The cooling-off period is 14 days from the policy start date, or when you receive the policy documents, whichever is later.&gt;You can find the administration fee mentioned above on your car insurance \ndetails.\n&gt;If you decide to cancel the policy, we‚Äôll give \nyou proof of any No Claim Discount. This will include any reduction due to claims you‚Äôve made while insured with us. See ‚ÄòNo Claim Discount (NCD)‚Äô on page 40 for more about this. Other insurers may ask for this proof.\n&gt;If you live in Northern Ireland, the Channel Islands or the Isle of Man, you must return your certificate of motor insurance to us \nafter cancellation. This applies whether we cancel the policy or you cancel it.\nIf we need to cancel the policy \n&gt;We can cancel the policy at any time if we \nhave a valid reason. If we have to do this, we‚Äôll \ngive you at least 7 days‚Äô notice. We‚Äôll send our cancellation notice to the latest address we have for you.\n&gt;It‚Äôs your responsibility to let anyone insured under this policy know that this policy has \nbeen cancelled.\n&gt;If you live in Northern Ireland, the Channel Islands or the Isle of Man, you must return your certificate of motor insurance to us \nafter cancellation. This applies whether we cancel the policy or you cancel it. \nWhy we might cancel the policy \nWe‚Äôll only cancel the policy if we have valid \nreasons for doing so. For example:\n&gt;If you‚Äôve failed to co-operate with us, or \nsend us information or documentation as described in your policy, and that has \naffected our ability to process your claim, or deal with your policy.\n&gt;If your circumstances have changed in such a way that you no longer meet our criteria for providing motor insurance.\n&gt;If you‚Äôve used threatening or abusive behaviour or language, or you‚Äôve intimidated or bullied our staff or suppliers.\n&gt;If we have good reasons to suspect fraud.\nRefunding the premium\nIf we cancel the policy, we‚Äôll charge for the time \nyou‚Äôve had the policy, and refund the rest of the \nPage 39How the policy works', 'Before renewal \nYou must tell us about any incident or motoring \noffence that‚Äôs happened since your cover started. For example, if anyone covered by the policy has had:\n&gt;Any motoring convictions, endorsements, \npenalty points, fixed penalties (excluding parking penalties), speed camera offences or disqualifications.\n&gt;Any incidents, thefts or losses, even if they didn‚Äôt claim or were not to blame.\n&gt;Any insurance cancelled by another insurer for fraud or misrepresentation.\nIf you don‚Äôt tell us about changes\nIf you don‚Äôt provide correct and complete \ninformation or inform us of any changes, this could invalidate your policy or mean we don‚Äôt \npay claims in full or at all. \nChanging your policy\nYou can make a temporary or permanent change to the policy at any time during the \nyear. \nIf you do this, you may have to pay an \nadministration fee as well as any additional premium. Please see your car insurance details\nfor more information on the administration fee. \nPaying your premium\nIf you change your car insurance and there‚Äôs an extra premium to pay, you can pay this at the time of the change, or add it to your monthly payments.\nWhat happens if we can‚Äôt collect your payment\nIf we have been unable to collect the instalment \npayment(s) due under your credit agreement on\nthe date(s) due, we will write to you in order to \ngive you the opportunity to make the payment(s).\nIf any instalment amount remain(s) unpaid by \nthe date we set out in our letter, we will give you 7 days‚Äô notice that we will cancel your policy, \nand inform you in writing when this cancellation has taken place.\nIf your credit agreement is cancelled, the \ncancellation date may be different to the cancellation date of the insurance policy.If there‚Äôs a claim while you owe us money\nIf you have made a claim, or one has been made\n against you before the date that we \ncancel the policy you must pay to us (1) all \ninstalment payments that have already fallen \ndue under the  credit agreement and remain \nunpaid, and (2) the total remaining balance under the credit agreement. If we agree to pay your claim and you have not paid the amounts due to us under \n(1) and (2) above, we may \nreduce the amount that we pay in settlement of your claim by the amount\nthat you owe us. \nAlternatively, if you are in arrears at the time of the claim, we may refuse your claim.\nIf you owe us an additional premium\nWe may refuse your claim. If we agree to allow \nyour claim, we may deduct any additional premium\nfrom any claim payment we make to you, or we \nmay proportionately reduce any claim payment.\nYour right to cancel the policy \nor remove any optional cover\nYou can cancel the policy, or remove \nany optional cover (including Green Flag \nbreakdown cover) you‚Äôve added, at any time ‚Äì just get in touch with us. The text below explains whether we‚Äôll charge you and how much we‚Äôll refund in each situation. \nIf the cancellation or removal happens before \nyour cover starts\nWe‚Äôll give a full refund.\nIf the cancellation or removal happens during \nyour 14-day cooling-off period\nWe‚Äôll charge for the time you‚Äôve had cover, and \nrefund the rest of the premium paid.\nIf the cancellation or removal happens after \nthe 14-day cooling off period \nWe‚Äôll charge for the time you‚Äôve had cover, \nplus an administration fee, and refund any remaining premium paid.How the policy works continued\nPage 38']</t>
-  </si>
-  <si>
     <t>If the policy is cancelled before the cover starts, a full refund will be given. If the cancellation happens during the 14-day cooling-off period, the time covered will be charged, and the rest of the premium paid will be refunded. If the cancellation occurs after the 14-day cooling-off period, the time covered will be charged along with an administration fee, and any remaining premium paid will be refunded. Reporting incidents is crucial for policy validity, as failure to provide correct and complete information or inform about changes could invalidate the policy or result in claims not being paid in full or at all.</t>
   </si>
   <si>
     <t>When would a policyholder need to make an extra payment with the claim, and how can it be prevented or reimbursed?</t>
   </si>
   <si>
-    <t>['Page 6Making a claim\nIf you need to claim\nThese steps will help you and enable us to \nprocess your claim quickly.\nHere are some important numbers \nyou‚Äôll need if you have an accident\nNeed to claim?\n0345 878 6261\nWindscreen claims\n0800 328 9150\nIf you have Essentials, Comprehensive \nor Comprehensive Plus cover\nMotor legal helpline\n0345 246 2408\nIf you have Motor Legal Cover\nHelp with anything else\n0345 877 6680\nStore these numbers in your phone so you have them available if needed. Even if you don‚Äôt make a claim on your car, it‚Äôs important to let us \nknow about the accident as quickly as possible. This will enable us to contact the other party and resolve the entire claim, giving you the best service and keep the costs down.\nHow it works\nTo get the ball rolling, we‚Äôll need to know things like:\n&gt;Your personal details.\n&gt;Your policy number.\n&gt;Your car registration number.\n&gt;A description of the loss or damage.\n&gt;If you‚Äôve been in an accident, the other \ndriver‚Äôs details.\nPlease have these handy when you get in touch.Other information you need to send us\nIf you get any communication such as any \nnotice or form from a court, any threat of legal action or similar, please contact us straight away. We‚Äôll deal with it or tell you what you need to do. You must also give us any other relevant information, documents or help we might need to process your claim, and pay any charges for sending such information. If you‚Äôre unsure if a document is relevant, please give it to us anyway.\nAvoid increasing the amount claimed\nYou must not do, or refrain from doing, anything \nthat would increase the amount of the claim without our written permission. For example, admit liability for, or negotiate to settle, any claim.\nPaying the excess\nFor some claims, you‚Äôll need to pay an \nexcess. You can find your excesses on \nyour car insurance details. Each driver \nmay have different excesses. We won‚Äôt \ncharge an excess if:\n&gt;You‚Äôre in an accident that we believe is not your fault and we can make a full recovery of our costs. Sometimes you may have to pay the excess while we‚Äôre looking into the claim, \nbut we‚Äôll refund it once it‚Äôs proven you‚Äôre not to blame and we can recover our costs.\n&gt;Your car is stolen from a private locked garage.\nIf you‚Äôre leasing your car or buying on hire purchase\nIf your car can‚Äôt be repaired and you‚Äôre leasing \nit, we‚Äôll pay any claims to the lease company, \nbecause they are the legal owners of the car.\nIf your car can‚Äôt be repaired and you‚Äôre buying \nit on hire purchase or a similar agreement, we‚Äôll \npay any claims to the legal owner. We‚Äôll only pay any remaining balance to you if you have the option to become the full owner at the end of the agreement.']</t>
-  </si>
-  <si>
     <t>Policyholders may need to make an extra payment, known as an excess, in some claims. This excess can be prevented or reimbursed by not doing anything that would increase the claim amount without the insurer's written permission. If the policyholder is in an accident that the insurer believes is not their fault and full recovery of costs can be made, the excess may be refunded once it's proven that the policyholder is not to blame and costs can be recovered.</t>
   </si>
   <si>
@@ -185,274 +140,181 @@
     <t>The insurance will pay for the cost of repairing or replacing your car up to its UK market value.</t>
   </si>
   <si>
-    <t>['Page 3FAQs\nHow much will you pay if my car is damaged?\nWhere damage to your car is covered under \nyour policy, we‚Äôll pay the cost of repairing or \nreplacing your car up to its UK market value. \nThis is the current value of your car at the time \nof the claim. It may be different to the amount \nyou paid or any amount you provided when you insured your car with us.\nWho is covered to drive other cars?\nYour certificate of motor insurance will show \nwho has cover to drive other cars. We‚Äôll only \ncover injury to third parties, or damage caused to their property, not to the car being driven. See ‚ÄòSection 1: Liability‚Äô on page 11.\nAm I covered if I leave my car unlocked or the \nkeys in the car?', '&gt;Damage to any belongings in your car that \nyou‚Äôre legally responsible for.\n&gt;Any other financial losses that happened as a direct result of the accident.You can use this cover if:\n&gt;Your car is involved in the road traffic \naccident within the territorial limits\nor when driving abroad.\n&gt;Someone not insured by this cover is more than 50% to blame.\nWe‚Äôll also cover up to ¬£250 for travel expenses you can‚Äôt claim elsewhere if you have to go to a court abroad, as a claimant or witness. We‚Äôll \nonly pay what is reasonable and necessary for these expenses.\nHow much am I covered for?', '&gt;Suffered damage that this policy covers, and \nthe cost of repairing it is more than 60% of the last UK list price (including taxes).\nWe can only do this if a replacement car is available in the UK, and so long as anyone else with an interest in your car agrees.\nIf a suitable replacement car is not available, or your car was not supplied as new in the UK, \nwe‚Äôll pay you the market value of your car at \nthe time it was stolen or damaged. We‚Äôll take any excess off the amount we pay you. If we \nsettle a claim this way, the lost or damaged car becomes our property, and you‚Äôll need to send us the registration document.\nHotel expenses\nIncluded with:\nComp Comp+', 'Whilst you have your courtesy car\nIf your insurance cover is third party, fire and theft, we‚Äôll also provide cover under sections \n4 and 5 for the courtesy car. If you claim under\nthese sections, you‚Äôll have to pay the first:\n&gt;¬£250 if you claim under section 4 for \naccidental damage.\n&gt;¬£115 if you claim under section 5 for windscreen replacement.\n&gt;¬£25 if you claim for windscreen repair.\nYou‚Äôre not covered for\n8If your car is written off, or is stolen and \nnot recovered, you won‚Äôt get a courtesy car.\nPage 17Section 3: Courtesy car']</t>
-  </si>
-  <si>
     <t>Who is covered to drive other cars?</t>
   </si>
   <si>
     <t>The main driver may be covered to drive other cars if it is stated on the certificate of motor insurance and certain conditions are met, such as not being covered by another insurance policy and not owning the other car.</t>
   </si>
   <si>
-    <t>['We‚Äôll also cover any of the following people for \ntheir liability to others:\n&gt;Anyone insured by this policy to drive \nyour car, if they have the policyholder‚Äôs\npermission.\n&gt;Anyone that the policyholder allows to use, \nbut not drive, your car.\n&gt;Anyone getting into or out of your car.\n&gt;The legal representative of anyone covered \nif that person dies.\n&gt;The employer or business partner of anyone covered while your car is being used for \nbusiness purposes, if your certificate of \nmotor insurance includes business use.\nPage 11', 'Page 12If the main driver is driving \nanother car\nMay be included with:\nTPFT Comp Comp+\nThe main driver may be covered for liability to \nothers when driving another car. If they‚Äôre covered:\n&gt;You‚Äôll see this on your certificate of motor \ninsurance.\n&gt;When the main driver drives any other car, \nwe‚Äôll provide the same cover as ‚ÄòIf you cause \nan accident‚Äô above, as long as:\n‚Ä¢They aren‚Äôt covered by another insurance \npolicy.\n‚Ä¢They don‚Äôt own the other car, and it isn‚Äôt hired to them under a hire-purchase or leasing agreement.\n‚Ä¢The car is not a hire, rental or courtesy car, unless we have provided or arranged it.\n‚Ä¢The owner of the car they‚Äôre driving gives their permission.', 'Car sharing\nThe policy covers anyone insured to drive \nyour car as part of a car sharing arrangement \n(carrying passengers for payment). This is so long as: \n&gt;Your car isn‚Äôt made or adapted to carry more \nthan 8 passengers and a driver. \n&gt;You‚Äôre not carrying the passengers as part of a business. \n&gt;You‚Äôre not making a profit from the passengers‚Äô payments or making a profit from allowing someone to drive.\n&gt;You‚Äôre not renting your car out or using a \npeer-to-peer hire scheme to do so. \nIf you‚Äôre not sure whether we‚Äôll cover your car if \nit‚Äôs used as part of a car sharing arrangement, please get in touch.\nWhen we can act on your behalf\nWe‚Äôre entitled to do either of the following:', 'Who‚Äôs covered?\nYou‚Äôll have this cover if you‚Äôre any of the following:\n&gt;The policyholder.\n&gt;Named as a driver on your certificate of \nmotor insurance and car insurance details.\n&gt;The registered keeper of your car.\n&gt;A passenger ‚Äì so long as it‚Äôs a motoring \noffence or a road traffic accident case.\nWhat we‚Äôll do\nIf you‚Äôre prosecuted for a motoring offence\nWe‚Äôll provide cover for the costs to defend you \nin a criminal court within the territorial limits if \nyou‚Äôre prosecuted for a motoring offence while \nusing your car.\nIf you‚Äôre in a motor contract dispute\nWe‚Äôll provide cover for the costs for you to \npursue or defend a breach of contract claim \nwithin the territorial limits for:']</t>
-  </si>
-  <si>
     <t>Am I covered if I leave my car unlocked or the keys in the car?</t>
   </si>
   <si>
     <t>No, you are not covered if you leave your car unlocked or the keys in the car.</t>
   </si>
   <si>
-    <t>['the person using it doesn‚Äôt take care to keep \nthe car secure. For example, if anyone who uses your car:\n‚Ä¢ Left the car keys unattended in or on the \ncar.\n‚Ä¢ Left the car unattended and unlocked. This \nincludes leaving windows, roof panels or hoods open or unlocked.\n8We won‚Äôt cover loss or damage to your car if \nsomeone takes it by fraud or deception while pretending to be a buyer.\n8We won‚Äôt cover any loss or damage to property if anyone who uses your car:\n‚Ä¢ Left any removable electronic equipment\nor removable in-car entertainment inside \na locked car where it could be seen.\n‚Ä¢ Left any property in an open or convertible\ncar outside of a locked boot or locked glove compartment.', 'keys in the car?\nWe won‚Äôt pay a claim for \ntheft or attempted theft\nif your car is left:\n&gt;Unlocked.\n&gt;With keys or key fobs in, on, or attached to \nthe car.\n&gt;With the engine running.\n&gt;With a window or roof open.\nWhat‚Äôs not included in my cover?\nWe don‚Äôt cover things like:\n&gt;Mechanical or electrical failure.\n&gt;Wear and tear.\n&gt;Damage to tyres caused by braking, punctures, cuts or bursts.\n&gt;Breakdowns (if your policy includes \nGreen Flag breakdown, this may cover getting \nyour car  going again).\nWe won‚Äôt provide cover if your car is being used:\n&gt;By someone who‚Äôs not insured on the policy.\n&gt;By someone who‚Äôs disqualified from driving.\n&gt;For a purpose that‚Äôs not allowed on the policy', 'Page 3FAQs\nHow much will you pay if my car is damaged?\nWhere damage to your car is covered under \nyour policy, we‚Äôll pay the cost of repairing or \nreplacing your car up to its UK market value. \nThis is the current value of your car at the time \nof the claim. It may be different to the amount \nyou paid or any amount you provided when you insured your car with us.\nWho is covered to drive other cars?\nYour certificate of motor insurance will show \nwho has cover to drive other cars. We‚Äôll only \ncover injury to third parties, or damage caused to their property, not to the car being driven. See ‚ÄòSection 1: Liability‚Äô on page 11.\nAm I covered if I leave my car unlocked or the \nkeys in the car?', 'You‚Äôre not covered for\n8There‚Äôs no cover if anyone in your family or anyone living or staying at your home address takes your keys without your permission, unless you‚Äôve reported it to the police and have a crime reference number.\n8We don‚Äôt cover any reduction in your car‚Äôs \nmarket value because of stolen keys.\n8We don‚Äôt cover losses that aren‚Äôt directly due to your keys being stolen. For example, we don‚Äôt cover loss of use or earnings.Section 2: Fire and theft continued']</t>
-  </si>
-  <si>
     <t>Does Churchill have approved repairers?</t>
   </si>
   <si>
     <t>Yes, Churchill customers have access to a national network of approved repairers.</t>
   </si>
   <si>
-    <t>['&gt;For a purpose that‚Äôs not allowed on the policy\n(as shown on your certificate of motor insurance).\nYou can find full details of what‚Äôs not covered by the policy in each cover section, and in ‚ÄòLosses \nwe don‚Äôt cover‚Äô on page 33.\nDoes Churchill have approved repairers? \nChurchill customers have access to a national \nnetwork of approved repairers. If \nyour car  is \nrepaired by one of these, they‚Äôll deal with all aspects of your repair. What is DriveSure?\nDriveSure is our telematics insurance product. \nIt‚Äôs designed to capture how, when and where your car is driven, based on driver-monitoring technology. We use it to understand your driving style and give you feedback. This means', 'Need to claim?\n0345 878 6261\nWindscreen claims\n0800 328 9150\nIf you have Essentials, Comprehensive \nor Comprehensive Plus cover\nMotor legal helpline\n0345 246 2408\nIf you have Motor Legal Cover\nDriveSure help\nEmail\nSupport@churchill.com\nCall\n0345 878 6375\nIf you have a question about telematicsHelp with anything else\nFAQs\nchurchill.com/faqs\nCall\n0345 877 6680\nIf you would like a Braille, large print or audio version \nof your documents, please let us know.\nChurchill insurance policies are underwritten by U K Insurance Limited, Registered office: The Wharf, Neville Street, Leeds,', 'car will not qualify for repair under our 5-year \nGuarantee if the cause is a lack of maintenance,\nwear and tear, or a subsequent incident. \nWhere we have agreed this with you, \nreasonable and necessary repairs can be carried out at a repairer of your choice. However, you must give us full details of the incident and we must approve the repairer‚Äôs detailed assessment of the repairs before the work begins. We may then make the arrangements for the repairs ourselves. \nWhere the repairs are carried out at a repairer \nof your choice, those repairs will NOT be guaranteed by us even though we may pay for them directly. For the purposes of this policy,', 'replacement with someone who isn‚Äôt an approved windscreen supplier, you don‚Äôt need to get our approval beforehand. However, we‚Äôll only cover a limited amount ‚Äì see ‚ÄòSection 5: Windscreen damage‚Äô on page 20.The excess amounts for windscreen repairs \nand replacement are shown on your car \ninsurance details.\nReplacing parts in your car\nWe may decide to repair your car with \nparts that haven‚Äôt been made by your car‚Äôs \nmanufacturer, but that are of a similar \nstandard. This can include recycled parts. If any part or accessory is not available, the most we‚Äôll pay for that part will be the cost shown in the manufacturer‚Äôs last UK price list (plus reasonable fitting costs).']</t>
-  </si>
-  <si>
     <t>What is DriveSure?</t>
   </si>
   <si>
     <t>DriveSure is Churchill's telematics insurance product designed to monitor how, when, and where your car is driven to understand your driving style and provide feedback.</t>
   </si>
   <si>
-    <t>['&gt;For a purpose that‚Äôs not allowed on the policy\n(as shown on your certificate of motor insurance).\nYou can find full details of what‚Äôs not covered by the policy in each cover section, and in ‚ÄòLosses \nwe don‚Äôt cover‚Äô on page 33.\nDoes Churchill have approved repairers? \nChurchill customers have access to a national \nnetwork of approved repairers. If \nyour car  is \nrepaired by one of these, they‚Äôll deal with all aspects of your repair. What is DriveSure?\nDriveSure is our telematics insurance product. \nIt‚Äôs designed to capture how, when and where your car is driven, based on driver-monitoring technology. We use it to understand your driving style and give you feedback. This means', 'We‚Äôve highlighted these words using bold type. You can find the exact meanings of  these words in the ‚ÄòGlossary‚Äô on page 4,  or at the start of each section.\nComprehensive with DriveSure\nIf you have a Comprehensive with  \nDriveSure policy: \n &gt;Your cover is the same as a  Comprehensive policy. \n &gt;Wherever Comprehensive is  mentioned in this policy booklet,  this also applies to you.', '&gt;This booklet.\n&gt;Your car insurance details.\n&gt;Your certificate (or certificates) of motor \ninsurance.\n&gt;The Green Flag breakdown cover policy \nbooklet ‚Äì where this applies. \n&gt;The DriveSure terms and conditions ‚Äì where they apply. \nPolicyholder The person named as the \npolicyholder on your car insurance details.Removable electronic equipment Electronic \nequipment that is designed to be fitted to, and used in, your car, which can be removed when \nnot in use. We do not cover speed assessment detection devices or any personal portable electronic or entertainment equipment (this may be covered under the Personal Belongings cover in Section 6 of this policy).', 'Page 28About Guaranteed Hire Car Plus\nWe‚Äôll aim to give you a hire car of a similar \nsize to yours, if your car is damaged in an incident, written off or stolen. \nThis cover is included with: \nComprehensive Plus\nIt‚Äôs an optional extra for:\nEssentials\nComprehensive\nCheck your car insurance details to see if this cover is included.\nIt‚Äôs not included with: \nThird Party, Fire and Theft\nWords with a specific meaning \nWhen we use these words or terms in this \nsection they have these specific meanings (unless we say differently).\nDriveable If you have an accident or need to \nclaim, your car is driveable if:\n&gt;It‚Äôs legal to drive.\n&gt;It‚Äôs roadworthy.\n&gt;You‚Äôve agreed with us it‚Äôs safe to drive.']</t>
-  </si>
-  <si>
     <t>What‚Äôs the difference between commuting and business use?</t>
   </si>
   <si>
     <t>Commuting is driving to and from a permanent place of work, while business use covers driving in connection with a business or employment.</t>
   </si>
   <si>
-    <t>['we can base your premium on your\ndriving record. \nWhat‚Äôs the difference between commuting \nand business use?\nBusiness use provides cover for driving in \nconnection with a business or employment. Your certificate of motor insurance will show if \nyour policy includes business use and the type \nof business use you have.\nCommuting is driving to and from a permanent \nplace of work, for either part of the journey, or for the whole journey. This includes driving to and from a car park, railway station or bus stop as part of your journey to and from a permanent place of work.\nCan I use my car abroad?\nIf you want to use your car abroad, your cover \ndepends on the type of policy you have and', '&gt;There are any changes to how your car is \nused, for example if you change from social, domestic and pleasure use to business use.\n&gt;There are any modifications made to \nyour car (see ‚ÄòModifications to your car‚Äô on page 36).\n&gt;You want to add another driver to the policy, \nor make any other change to who can drive your car.\n&gt;You want to change to a higher level of cover, for example from Third Party, Fire and Theft to Comprehensive.\nAfter your cover starts\nYou must tell us as soon as possible if:\n&gt;You change the address where your car is \nnormally kept overnight.\n&gt;Anyone covered by the policy changes their \noccupation.\n&gt;Anyone covered by the policy passes their \ndriving test.', 'Car sharing\nThe policy covers anyone insured to drive \nyour car as part of a car sharing arrangement \n(carrying passengers for payment). This is so long as: \n&gt;Your car isn‚Äôt made or adapted to carry more \nthan 8 passengers and a driver. \n&gt;You‚Äôre not carrying the passengers as part of a business. \n&gt;You‚Äôre not making a profit from the passengers‚Äô payments or making a profit from allowing someone to drive.\n&gt;You‚Äôre not renting your car out or using a \npeer-to-peer hire scheme to do so. \nIf you‚Äôre not sure whether we‚Äôll cover your car if \nit‚Äôs used as part of a car sharing arrangement, please get in touch.\nWhen we can act on your behalf\nWe‚Äôre entitled to do either of the following:', 'depends on the type of policy you have and \nwhere you‚Äôre driving. You can find full details \nin ‚ÄòWhere you can drive‚Äô on page 31.\nYou may need a Green Card if you‚Äôre travelling \nabroad. If you need one, please get in touch before you travel. We also recommend you take \na European Accident Statement with you. You can\nget one at churchill.com/eas-form.pdf\nAre my electric car‚Äôs charging cables covered?\nYour home charger and charging cables are \nconsidered an accessory to your car. This means\nthey‚Äôre covered under ‚ÄòSection 2: Fire and theft‚Äô or \n‚ÄòSection 4: Accidental damage‚Äô of your policy. \nYou‚Äôre also covered for any accidents to others']</t>
-  </si>
-  <si>
     <t>Can I use my car abroad?</t>
   </si>
   <si>
     <t>It depends on the type of policy you have and the coverage included for foreign use extension.</t>
   </si>
   <si>
-    <t>['the territorial limits. Please check with the \ncompany that we instruct to give you the hire car to see if you are covered by their insurance.Countries where you have \nminimum cover\nIf you do not have Foreign Use Extension, or if it \nhas been used up, your car insurance only gives you the minimum car insurance required by law for the countries listed below:\n&gt;Any country which is a member of the \nEuropean Union.\n&gt;Any country listed below that the Commission of the European Community approves as meeting the requirements of Article 8 of EC Directive 2009/103/EC on Insurance of Civil Liabilities arising from using cars. \nCountries included\nAndorra, Austria, Belgium, Bosnia and', 'If you can‚Äôt drive your car because of lost or \ndamaged car keys and have our Guaranteed \nHire Car Plus cover, we‚Äôll extend this cover while \nyou‚Äôre unable to use your car. See ‚ÄòSection 8: \nGuaranteed Hire Car Plus‚Äô on page 28.Driving abroad\nWhile driving your car abroad, we‚Äôll cover your \ncar keys if they are lost when:\n&gt;You have Comprehensive cover and you‚Äôve \nadded Foreign Use Extension to your cover before you travel (this will be shown on your car insurance details).\n&gt;You have Comprehensive Plus cover, where 90 days of Foreign Use Extension is included for each insured period. \nYou‚Äôll need to replace your car keys and send', 'keys and have our Guaranteed Hire Car Plus \ncover, we‚Äôll extend this cover while you‚Äôre unable to use your car. See ‚ÄòSection 8: Guaranteed Hire \nCar Plus‚Äô on page 28.Driving abroad\nWhile driving your car abroad, we‚Äôll cover your \ncar keys if they are stolen when:\n&gt;You have Comprehensive cover and you‚Äôve \nadded Foreign Use Extension to your cover before you travel (this will be shown on your car insurance details).\n&gt;You have Comprehensive Plus cover, where 90 days of Foreign Use Extension is included for each insured period. \nYou‚Äôll need to replace your car keys and send \nthe receipts to us. We‚Äôll then reimburse the costs up to the amounts shown on page 8.\nYou‚Äôre not covered for', 'we can base your premium on your\ndriving record. \nWhat‚Äôs the difference between commuting \nand business use?\nBusiness use provides cover for driving in \nconnection with a business or employment. Your certificate of motor insurance will show if \nyour policy includes business use and the type \nof business use you have.\nCommuting is driving to and from a permanent \nplace of work, for either part of the journey, or for the whole journey. This includes driving to and from a car park, railway station or bus stop as part of your journey to and from a permanent place of work.\nCan I use my car abroad?\nIf you want to use your car abroad, your cover \ndepends on the type of policy you have and']</t>
-  </si>
-  <si>
     <t>Is my electric car battery covered?</t>
   </si>
   <si>
     <t>Yes, your electric car's battery is covered if it's damaged as a result of an insured incident. This cover applies whether your battery is owned or leased.</t>
   </si>
   <si>
-    <t>['You‚Äôre also covered for any accidents to others \ninvolving your charging cables when they are attached to your car. For example, someone tripping over your cable, as long as you have taken due care to prevent such an accident. See ‚ÄòSection 1: Liability‚Äô on page 11. \nIs my electric car battery covered?\nYour car‚Äôs battery is covered if it‚Äôs damaged as \na result of an insured incident. This cover applies\nwhether your battery is owned or leased.FAQs', 'depends on the type of policy you have and \nwhere you‚Äôre driving. You can find full details \nin ‚ÄòWhere you can drive‚Äô on page 31.\nYou may need a Green Card if you‚Äôre travelling \nabroad. If you need one, please get in touch before you travel. We also recommend you take \na European Accident Statement with you. You can\nget one at churchill.com/eas-form.pdf\nAre my electric car‚Äôs charging cables covered?\nYour home charger and charging cables are \nconsidered an accessory to your car. This means\nthey‚Äôre covered under ‚ÄòSection 2: Fire and theft‚Äô or \n‚ÄòSection 4: Accidental damage‚Äô of your policy. \nYou‚Äôre also covered for any accidents to others', '&gt;Any electric charging cables when attached \nto your car as long as you have taken due \ncare to prevent such an accident.\nWe‚Äôll provide cover up to the amounts shown in ‚ÄòWhat your cover includes‚Äô on page 8.\nIf someone needs emergency \nmedical treatment\nIncluded with:\nTPFT Essential Comp Comp+\nWe‚Äôll cover emergency medical treatment if it‚Äôs \nour responsibility under the Road Traffic Act.\nIf you claim for emergency medical treatment only, the NCD owner won‚Äôt lose the No Claim \nDiscount on this policy.Section 1: Liability\nIf you have to go to court\nIncluded with:\nTPFT Essential Comp Comp+\nIf there‚Äôs an accident covered by this policy, we', 'Page 13Section 1: Liability\nLiability for automated cars \nin Great Britain\nWe‚Äôll provide cover for accidents caused \nby your automated car when it is lawfully driving itself on a road or other public place in Great Britain.\nIf you‚Äôre on:\nThird Party, Fire and Theft\nEssentials\nComprehensive\nComprehensive Plus\nthe cover in this section depends on the type of car you have.\nDoes this cover apply to my car?\nThe cover in this sub-section will only apply \nto your car if it has been identified on the Secretary of State‚Äôs list of motor vehicles that may safely drive themselves. \nIf your car isn‚Äôt identified on the list, the cover \nin this section won‚Äôt apply to your policy.\nYou can find out more at']</t>
-  </si>
-  <si>
     <t>What does excess mean in my policy?</t>
   </si>
   <si>
     <t>The excess in your policy is the amount that you may have to pay towards a claim. It can vary depending on the type of claim and level of cover.</t>
   </si>
   <si>
-    <t>['&gt;Corruption, unauthorised access to, or theft \nof data.\n&gt;Hacking or service denial.\nExcess The amount that you may have to pay \ntowards a claim. Details of the excesses can be found in your car insurance details.\nIn-car entertainment Products designed to \nprovide in-car entertainment that are either permanently fitted to your car, or removable. \nBut not any personal portable electronic or entertainment equipment that isn‚Äôt specifically designed to be used in your car (this may be \ncovered under the Personal Belongings cover in Section 6 of this policy).Glossary', 'Paying the excess\nFor some claims, you‚Äôll need to pay an \nexcess. You can find your excesses on \nyour car insurance details. Each driver \nmay have different excesses. We won‚Äôt \ncharge an excess if:\n&gt;You‚Äôre in an accident that we believe is not your fault and we can make a full recovery of our costs. Sometimes you may have to pay the excess while we‚Äôre looking into the claim, \nbut we‚Äôll refund it once it‚Äôs proven you‚Äôre not to blame and we can recover our costs.\n&gt;Your car is stolen from a private locked garage.\nIf you‚Äôre leasing your car or buying on hire purchase\nIf your car can‚Äôt be repaired and you‚Äôre leasing \nit, we‚Äôll pay any claims to the lease company,', 'If you get any communication such as any \nnotice or form from a court, any threat of legal action or similar, please contact us straight away. We‚Äôll deal with it or tell you what you need to do. You must also give us any other relevant information, documents or help we might need to process your claim, and pay any charges for sending such information. If you‚Äôre unsure if a document is relevant, please give it to us anyway.\nAvoid increasing the amount claimed\nYou must not do, or refrain from doing, anything \nthat would increase the amount of the claim without our written permission. For example, admit liability for, or negotiate to settle, any claim.\nPaying the excess', 'Page 8We‚Äôll provide cover up to the amounts shown below, depending on the type of claim and the level of cover.\nPlease see under each section for further details and any restrictions. If the section of your policy you are \nlooking to claim under includes an excess, we‚Äôll pay you up to the amount shown in the table after your \nexcess has been deducted.What your cover includes\nThird Party, \nFire and Theft Essentials ComprehensiveComprehensive \nPlus\nSection 1: Liability\nInjuries to other people 4 Unlimited\nProperty damage 4 ¬£20,000,000 per accident (includes all costs and expenses)\nSection 2: Fire and theft Fire damage to your car\n4Market value\nTheft or attempted theft \nof your car4Market value']</t>
-  </si>
-  <si>
     <t>What is a courtesy car?</t>
   </si>
   <si>
     <t>A courtesy car is a small hatchback with an engine size of up to 1000cc that may be provided to you while your car is being repaired, subject to availability. It is included in Third Party, Fire and Theft and Essentials policies, as well as Comprehensive policies without Guaranteed Hire Car Plus.</t>
   </si>
   <si>
-    <t>['subject to availability. \n&gt;The courtesy car will be a small hatchback \ncar with an engine size of up to 1000cc.\n&gt;Your policy will cover you (or any other \ndriver named on your certificate of motor \ninsurance) to drive the courtesy car. \n&gt;Your cover to drive the courtesy car is \nrestricted to the limits on use and exclusions \nshown on your certificate of motor insurance, \nand in the terms of your policy. \n&gt;A courtesy car may not be available on the day.\n&gt;You can only drive the courtesy car within \nthe territorial limits. It cannot be used in the \nRepublic of Ireland.\nWhilst you have your courtesy car', 'Section 3: Courtesy car\nCourtesy car\nThe courtesy car will be a small hatchback, \nso may not be of a similar size or style to your car.\nThis cover is included with: \nThird Party, Fire and Theft\nThis cover is included with: \nEssentials\nComprehensive\nif you haven‚Äôt picked Guaranteed Hire Car Plus.\nIt‚Äôs not included with: \nComprehensive Plus\nbecause it‚Äôs replaced by \nGuaranteed Hire Car Plus.\nSee page 28 to find out more about \nGuaranteed Hire Car PlusWhat we‚Äôll do\nIf you claim under section 2 or 4 of your policy\nand your car is being repaired by an approved \nrepairer:\n&gt;You will get a courtesy car to keep you \nmobile while your car is being repaired, \nsubject to availability.', '&gt;You‚Äôve agreed with us it‚Äôs safe to drive. \nHire car A car or van, that is supplied to you \ntemporarily on our behalf by the hire car \ncompany.Hire car company The company that we \ninstruct to give you the hire car.\nWhat we‚Äôll do\nGuaranteed Hire Car Plus is designed to keep \nyou mobile while your car is being repaired, by \nproviding you with a hire car that‚Äôs a similar size \nto your car. You may also have access to the \ncar for longer than if you only have courtesy \ncar cover. \nThe type of hire car provided is decided by \nthe hire car company and is dependent upon \nyour car:&gt;If your car has up to 5 seats ‚Äì a hire car up to \na 4/5 door standard saloon may be provided.', 'a 4/5 door standard saloon may be provided.\n&gt;If your car has 6 or more seats ‚Äì a hire car up \nto a Mini MPV may be provided.\nWe‚Äôll always try to provide you with a hire car\nthat‚Äôs a similar size to your car, but sometimes \none may not be available. We cannot guarantee that your hire car will be the same as \nyour car in terms of its size, type, value or status.\nWhen am I covered? \nIf we‚Äôre dealing with your claim under sections 2 or 4 of your policy, we‚Äôll arrange for a hire car \ncompany to provide you with a hire car when \nboth of the following apply:\n&gt;Your car is damaged because of an \naccident, fire or theft, or if it‚Äôs stolen and not recovered.']</t>
-  </si>
-  <si>
     <t>What should I do if I receive a court notice related to my claim?</t>
   </si>
   <si>
     <t>Contact the insurance company immediately.</t>
   </si>
   <si>
-    <t>['If you get any communication such as any \nnotice or form from a court, any threat of legal action or similar, please contact us straight away. We‚Äôll deal with it or tell you what you need to do. You must also give us any other relevant information, documents or help we might need to process your claim, and pay any charges for sending such information. If you‚Äôre unsure if a document is relevant, please give it to us anyway.\nAvoid increasing the amount claimed\nYou must not do, or refrain from doing, anything \nthat would increase the amount of the claim without our written permission. For example, admit liability for, or negotiate to settle, any claim.\nPaying the excess', '&gt;Keep us and your appointed representative\nup to date with any developments to do with the claim.\n&gt;As soon as possible, give us and your appointed representative any information, evidence and documents that you have or know about.\n&gt;Tell your appointed representative to give us \nany documents, information or advice that they have or know about, if we ask.\nYou must not take any action that hasn‚Äôt been agreed by us or your appointed representative.\nIf your appointed representative refuses to continue acting, or if you dismiss them\nIf either of the following happens, we‚Äôll end \ncover for your costs immediately, unless we \nagree to a different appointed representative:', 'Settling or ending your claim\nOffers to settle your claim\nYou must tell us if anyone:\n&gt;Offers to settle your claim.\n&gt;Makes a payment into court.\nIf you refuse to accept an offer or payment \nthat we or your appointed representative\nthink you should accept, we can refuse to cover any further costs.\nApproval to settle or end your claim\nUnless we agree, you must not:\n&gt;Stop, settle, negotiate or withdraw your claim.\n&gt;Dismiss your appointed representative.\nWe won‚Äôt withhold our agreement to take these \nactions without good reason.\nWhen we might choose to settle your claim\nWe can settle your claim outside of court if we \nthink it makes financial sense to do this. We‚Äôll do \nthis by covering you for:', 'Page 26Making Motor Legal Cover claims\nAccepting your claim\nBefore we cover your costs, we must accept \nthat you have a valid claim.We‚Äôll only accept your claim if:\n&gt;The incident happened within the territorial \nlimits ‚Äì except where covered abroad.\n&gt;You were covered on the date of incident.\n&gt;The legal proceedings will happen in a court\nwithin the territorial limits ‚Äì except where \ncovered abroad.\nFollowing the policy terms\nYou must do all of the following: \n&gt;Comply with all of the terms of this policy.\n&gt;Take all reasonable precautions to minimise \nthe cost of claims.\n&gt;Take all reasonable precautions to prevent a claim from happening. \nIf you haven‚Äôt followed any of the terms of this']</t>
-  </si>
-  <si>
     <t>What details are needed to start a claim?</t>
   </si>
   <si>
     <t>To start a claim, you will need to provide your personal details, policy number, car registration number, description of loss or damage, and the other driver's details if applicable.</t>
   </si>
   <si>
-    <t>['know about the accident as quickly as possible. This will enable us to contact the other party and resolve the entire claim, giving you the best service and keep the costs down.\nHow it works\nTo get the ball rolling, we‚Äôll need to know things like:\n&gt;Your personal details.\n&gt;Your policy number.\n&gt;Your car registration number.\n&gt;A description of the loss or damage.\n&gt;If you‚Äôve been in an accident, the other \ndriver‚Äôs details.\nPlease have these handy when you get in touch.Other information you need to send us\nIf you get any communication such as any', '&gt;The registration number, make and model \nof the vehicle that hit you.\n&gt;The driver‚Äôs details, if possible.\n&gt;The names and addresses of any independent witnesses, if available. \nWhile we‚Äôre looking into your claim \nWhile we‚Äôre looking into your claim, you may \nhave to pay your excess. Also, if you renew \nduring this time, you may temporarily lose the No Claim Discount on this policy. Once \nwe confirm that the accident was the fault of the uninsured driver, we‚Äôll repay your excess, \nrestore the No Claim Discount on this policy, \nand refund any extra premium you‚Äôve paid that was solely due to this claim. Medical expenses\nIncluded with:\nEssential Comp Comp+', 'car insurance details', 'Page 6Making a claim\nIf you need to claim\nThese steps will help you and enable us to \nprocess your claim quickly.\nHere are some important numbers \nyou‚Äôll need if you have an accident\nNeed to claim?\n0345 878 6261\nWindscreen claims\n0800 328 9150\nIf you have Essentials, Comprehensive \nor Comprehensive Plus cover\nMotor legal helpline\n0345 246 2408\nIf you have Motor Legal Cover\nHelp with anything else\n0345 877 6680\nStore these numbers in your phone so you have them available if needed. Even if you don‚Äôt make a claim on your car, it‚Äôs important to let us']</t>
-  </si>
-  <si>
     <t>What is an approved windscreen supplier?</t>
   </si>
   <si>
     <t>A repairer authorized and approved by the insurance company to repair or replace a car's windscreen.</t>
   </si>
   <si>
-    <t>['replacement with someone who isn‚Äôt an approved windscreen supplier, you don‚Äôt need to get our approval beforehand. However, we‚Äôll only cover a limited amount ‚Äì see ‚ÄòSection 5: Windscreen damage‚Äô on page 20.The excess amounts for windscreen repairs \nand replacement are shown on your car \ninsurance details.\nReplacing parts in your car\nWe may decide to repair your car with \nparts that haven‚Äôt been made by your car‚Äôs \nmanufacturer, but that are of a similar \nstandard. This can include recycled parts. If any part or accessory is not available, the most we‚Äôll pay for that part will be the cost shown in the manufacturer‚Äôs last UK price list (plus reasonable fitting costs).', 'Accessories Parts or products specifically \ndesigned to be fitted to your car, including your \nelectric car‚Äôs charging cables and the charger installed at your home. We may treat some accessories as modifications, so please tell us \nabout any changes to your car.\nApproved repairer A repairer in our network of \ncontracted repairers who‚Äôs approved by us to carry out repairs to your car following a claim \nunder this policy.\nApproved windscreen supplier A repairer we \nhave approved and authorised to repair or replace your car‚Äôs windscreen.\nAutomated car Your car where it is lawfully \ndriving itself on roads or other public places in Great Britain. Please note that your car', 'roof and rear windscreen assembly together, if this is more cost-effective than replacing the glass alone.How much am I covered for?\nWe‚Äôll provide cover up to the amounts shown in ‚ÄòWhat your cover includes‚Äô on page 8.\nYou‚Äôre not covered for\n8Any other losses covered under another section of this policy for the same incident, \nsuch as dents to the bodywork.\n8Damage caused by vandalism (this may \nbe covered under Section 4: Accidental Damage).\nIf your claim is only for accidental damage to your car‚Äôs windscreen, sunroof or windows, you won‚Äôt lose the No Claim Discount on this policy.\nYou‚Äôll need to pay an excess for each \nincident you claim for.Section 5: Windscreen damage\nPage 20', 'Windscreen damage\nWe‚Äôll help put things right if the glass in your \ncar is accidentally damaged.\nThis cover is included with: \nEssentials\nComprehensive\nComprehensive Plus\nIt‚Äôs not included with: \nThird Party, Fire and Theft\nWhat we‚Äôll do\nWe‚Äôll pay to: \n&gt;Replace or repair accidentally broken glass in \nthe windscreen, sunroof or windows of your car. \n&gt;Repair any scratching to the bodywork caused by the broken glass, so long as there wasn‚Äôt any other loss or damage resulting from the same incident. \n&gt;Recalibrate your car‚Äôs ADAS (Advanced \nDriver Assistance System) where this relates to the repair or replacement of your car‚Äôs \nwindscreen. \n&gt;If your car has a folding roof, we‚Äôll replace the']</t>
-  </si>
-  <si>
     <t>How do repairs work if my car is damaged?</t>
   </si>
   <si>
     <t>Repairs to your car will be carried out by an approved repairer and are guaranteed for five years. If your car is driveable, you will be provided with a hire car until the repairs are completed. If your car is not driveable, a hire car will be provided once repair is confirmed.</t>
   </si>
   <si>
-    <t>['Page 7Making a claim\nHow repairs and replacements work\nThis page explains how we‚Äôll repair your car. \nWe‚Äôll only do this if it makes financial sense for \nus to do so. For more details, see: \n&gt;Section 2: Fire and theft on page 14. \n&gt;Section 4: Accidental damage on page 18. \n&gt;Section 5: Windscreen damage on page 20.\nRepairs to your car\nIf our approved repairer carries out the repairs, \nyou do not need an estimate, and you will benefit\nfrom our 5-year Guarantee. This means parts, \nmaterials and workmanship provided by our \napproved repairer are guaranteed for five years,\nunless you sell your car or end your lease. Your \ncar will not qualify for repair under our 5-year', '&gt;The loss or damage happens within the territorial limits.\nFor details of your cover in the Republic of Ireland, see ‚ÄòWhere you can drive‚Äô on page 31. \nHow much am I covered for? \nIf your car can be repaired, and is driveable\nWe‚Äôll provide you with a hire car from the point \nyour car goes in for repair: \n&gt;If you use our approved repairer, until they‚Äôve \nrepaired your car. \n&gt;If you use your own repairer, for up to 21 days \nin a row while they‚Äôre repairing your car. \nIf your car can be repaired, and is not driveable\nAs soon as you‚Äôve confirmed that we can start \nthe repair, we‚Äôll provide you with a hire car: \n&gt;If you use our approved repairer, until they \nhave repaired your car.', 'Page 18Damage to your car\nWe‚Äôll put things right if your car is damaged.\nIf you‚Äôre on:\nEssentials\nComprehensive\nComprehensive Plus\nthe cover in this section depends on \nthe type of insurance you have.\nThis cover is not included with: \nThird Party, Fire and Theft\nAccidental damage to your car\nIncluded with:\nEssential Comp Comp+\nIf your car is accidentally damaged, we can \nchoose to either:\n&gt;Repair ‚Äì we‚Äôll repair the damage ourselves \nor pay to repair it.\n&gt;Replace ‚Äì we‚Äôll replace whatever is lost or damaged, if that‚Äôs more cost-effective.\n&gt;Repay ‚Äì we‚Äôll settle your claim by sending a payment.\n‚ÄòHow it works‚Äô on page 6 tells you how we manage repairs and replacements.\nChild car seats', 'Page 3FAQs\nHow much will you pay if my car is damaged?\nWhere damage to your car is covered under \nyour policy, we‚Äôll pay the cost of repairing or \nreplacing your car up to its UK market value. \nThis is the current value of your car at the time \nof the claim. It may be different to the amount \nyou paid or any amount you provided when you insured your car with us.\nWho is covered to drive other cars?\nYour certificate of motor insurance will show \nwho has cover to drive other cars. We‚Äôll only \ncover injury to third parties, or damage caused to their property, not to the car being driven. See ‚ÄòSection 1: Liability‚Äô on page 11.\nAm I covered if I leave my car unlocked or the \nkeys in the car?']</t>
-  </si>
-  <si>
     <t>What happens if my car is written off?</t>
   </si>
   <si>
     <t>If your car is written off, the insurance company will provide you with a hire car for up to 21 days in a row or up to 5 days after the first payment has been issued to settle your claim.</t>
   </si>
   <si>
-    <t>['Page 3FAQs\nHow much will you pay if my car is damaged?\nWhere damage to your car is covered under \nyour policy, we‚Äôll pay the cost of repairing or \nreplacing your car up to its UK market value. \nThis is the current value of your car at the time \nof the claim. It may be different to the amount \nyou paid or any amount you provided when you insured your car with us.\nWho is covered to drive other cars?\nYour certificate of motor insurance will show \nwho has cover to drive other cars. We‚Äôll only \ncover injury to third parties, or damage caused to their property, not to the car being driven. See ‚ÄòSection 1: Liability‚Äô on page 11.\nAm I covered if I leave my car unlocked or the \nkeys in the car?', 'have repaired your car. \n&gt;If you use your own repairer, for up to 21 days in a row while they‚Äôre repairing your car. \nIf your car is written off, or is stolen and not recovered\nWe‚Äôll provide you with a hire car for whichever is \nshortest of these two periods: \n&gt;Up to 21 days in a row.\n&gt;Up to 5 days after our first (or only) payment \nhas been issued to settle your claim.Section 8: Guaranteed Hire Car Plus', 'Removing, delivering and storing your car\nIf we‚Äôre dealing with your claim under sections 2 \nor 4 of your  policy and your car can‚Äôt be driven, \nwe‚Äôll cover reasonable costs to take it to the nearest suitable repairer. \nWe‚Äôll help you and your passengers make \narrangements to get home, to your original destination or take you to a safe place.\nWe‚Äôll also cover the reasonable cost of delivering your car to you (at the address shown \non your car insurance details) after it‚Äôs repaired.\nIf we need to put your car into safe storage at \nany time, we‚Äôll cover the reasonable cost of storage.\nIf your car is written off\nIf your car is written off and we agree to settle', '&gt;The loss or damage happens within the territorial limits.\nFor details of your cover in the Republic of Ireland, see ‚ÄòWhere you can drive‚Äô on page 31. \nHow much am I covered for? \nIf your car can be repaired, and is driveable\nWe‚Äôll provide you with a hire car from the point \nyour car goes in for repair: \n&gt;If you use our approved repairer, until they‚Äôve \nrepaired your car. \n&gt;If you use your own repairer, for up to 21 days \nin a row while they‚Äôre repairing your car. \nIf your car can be repaired, and is not driveable\nAs soon as you‚Äôve confirmed that we can start \nthe repair, we‚Äôll provide you with a hire car: \n&gt;If you use our approved repairer, until they \nhave repaired your car.']</t>
-  </si>
-  <si>
     <t>How does Churchill handle windscreen repairs?</t>
   </si>
   <si>
     <t>Churchill will pay to replace or repair accidentally broken glass in the windscreen, sunroof, or windows of your car. They will also repair any scratching to the bodywork caused by the broken glass, and recalibrate your car's ADAS if necessary.</t>
   </si>
   <si>
-    <t>['Need to claim?\n0345 878 6261\nWindscreen claims\n0800 328 9150\nIf you have Essentials, Comprehensive \nor Comprehensive Plus cover\nMotor legal helpline\n0345 246 2408\nIf you have Motor Legal Cover\nDriveSure help\nEmail\nSupport@churchill.com\nCall\n0345 878 6375\nIf you have a question about telematicsHelp with anything else\nFAQs\nchurchill.com/faqs\nCall\n0345 877 6680\nIf you would like a Braille, large print or audio version \nof your documents, please let us know.\nChurchill insurance policies are underwritten by U K Insurance Limited, Registered office: The Wharf, Neville Street, Leeds,', 'roof and rear windscreen assembly together, if this is more cost-effective than replacing the glass alone.How much am I covered for?\nWe‚Äôll provide cover up to the amounts shown in ‚ÄòWhat your cover includes‚Äô on page 8.\nYou‚Äôre not covered for\n8Any other losses covered under another section of this policy for the same incident, \nsuch as dents to the bodywork.\n8Damage caused by vandalism (this may \nbe covered under Section 4: Accidental Damage).\nIf your claim is only for accidental damage to your car‚Äôs windscreen, sunroof or windows, you won‚Äôt lose the No Claim Discount on this policy.\nYou‚Äôll need to pay an excess for each \nincident you claim for.Section 5: Windscreen damage\nPage 20', 'replacement with someone who isn‚Äôt an approved windscreen supplier, you don‚Äôt need to get our approval beforehand. However, we‚Äôll only cover a limited amount ‚Äì see ‚ÄòSection 5: Windscreen damage‚Äô on page 20.The excess amounts for windscreen repairs \nand replacement are shown on your car \ninsurance details.\nReplacing parts in your car\nWe may decide to repair your car with \nparts that haven‚Äôt been made by your car‚Äôs \nmanufacturer, but that are of a similar \nstandard. This can include recycled parts. If any part or accessory is not available, the most we‚Äôll pay for that part will be the cost shown in the manufacturer‚Äôs last UK price list (plus reasonable fitting costs).', 'Windscreen damage\nWe‚Äôll help put things right if the glass in your \ncar is accidentally damaged.\nThis cover is included with: \nEssentials\nComprehensive\nComprehensive Plus\nIt‚Äôs not included with: \nThird Party, Fire and Theft\nWhat we‚Äôll do\nWe‚Äôll pay to: \n&gt;Replace or repair accidentally broken glass in \nthe windscreen, sunroof or windows of your car. \n&gt;Repair any scratching to the bodywork caused by the broken glass, so long as there wasn‚Äôt any other loss or damage resulting from the same incident. \n&gt;Recalibrate your car‚Äôs ADAS (Advanced \nDriver Assistance System) where this relates to the repair or replacement of your car‚Äôs \nwindscreen. \n&gt;If your car has a folding roof, we‚Äôll replace the']</t>
-  </si>
-  <si>
     <t>What is the process for claiming for windscreen damage?</t>
   </si>
   <si>
     <t>To claim for windscreen damage, call 0800 328 9150 for windscreen claims. Make sure to store the numbers in your phone for easy access. You may need to pay an excess for each incident claimed.</t>
   </si>
   <si>
-    <t>['Page 6Making a claim\nIf you need to claim\nThese steps will help you and enable us to \nprocess your claim quickly.\nHere are some important numbers \nyou‚Äôll need if you have an accident\nNeed to claim?\n0345 878 6261\nWindscreen claims\n0800 328 9150\nIf you have Essentials, Comprehensive \nor Comprehensive Plus cover\nMotor legal helpline\n0345 246 2408\nIf you have Motor Legal Cover\nHelp with anything else\n0345 877 6680\nStore these numbers in your phone so you have them available if needed. Even if you don‚Äôt make a claim on your car, it‚Äôs important to let us', 'roof and rear windscreen assembly together, if this is more cost-effective than replacing the glass alone.How much am I covered for?\nWe‚Äôll provide cover up to the amounts shown in ‚ÄòWhat your cover includes‚Äô on page 8.\nYou‚Äôre not covered for\n8Any other losses covered under another section of this policy for the same incident, \nsuch as dents to the bodywork.\n8Damage caused by vandalism (this may \nbe covered under Section 4: Accidental Damage).\nIf your claim is only for accidental damage to your car‚Äôs windscreen, sunroof or windows, you won‚Äôt lose the No Claim Discount on this policy.\nYou‚Äôll need to pay an excess for each \nincident you claim for.Section 5: Windscreen damage\nPage 20', 'replacement with someone who isn‚Äôt an approved windscreen supplier, you don‚Äôt need to get our approval beforehand. However, we‚Äôll only cover a limited amount ‚Äì see ‚ÄòSection 5: Windscreen damage‚Äô on page 20.The excess amounts for windscreen repairs \nand replacement are shown on your car \ninsurance details.\nReplacing parts in your car\nWe may decide to repair your car with \nparts that haven‚Äôt been made by your car‚Äôs \nmanufacturer, but that are of a similar \nstandard. This can include recycled parts. If any part or accessory is not available, the most we‚Äôll pay for that part will be the cost shown in the manufacturer‚Äôs last UK price list (plus reasonable fitting costs).', 'Windscreen damage\nWe‚Äôll help put things right if the glass in your \ncar is accidentally damaged.\nThis cover is included with: \nEssentials\nComprehensive\nComprehensive Plus\nIt‚Äôs not included with: \nThird Party, Fire and Theft\nWhat we‚Äôll do\nWe‚Äôll pay to: \n&gt;Replace or repair accidentally broken glass in \nthe windscreen, sunroof or windows of your car. \n&gt;Repair any scratching to the bodywork caused by the broken glass, so long as there wasn‚Äôt any other loss or damage resulting from the same incident. \n&gt;Recalibrate your car‚Äôs ADAS (Advanced \nDriver Assistance System) where this relates to the repair or replacement of your car‚Äôs \nwindscreen. \n&gt;If your car has a folding roof, we‚Äôll replace the']</t>
-  </si>
-  <si>
     <t>How are parts replaced in my car?</t>
   </si>
   <si>
     <t>Parts in your car may be replaced with parts that are not made by your car's manufacturer, but are of a similar standard. This can include recycled parts. If a part is not available, the maximum payment will be based on the manufacturer's last UK price list.</t>
   </si>
   <si>
-    <t>['Page 7Making a claim\nHow repairs and replacements work\nThis page explains how we‚Äôll repair your car. \nWe‚Äôll only do this if it makes financial sense for \nus to do so. For more details, see: \n&gt;Section 2: Fire and theft on page 14. \n&gt;Section 4: Accidental damage on page 18. \n&gt;Section 5: Windscreen damage on page 20.\nRepairs to your car\nIf our approved repairer carries out the repairs, \nyou do not need an estimate, and you will benefit\nfrom our 5-year Guarantee. This means parts, \nmaterials and workmanship provided by our \napproved repairer are guaranteed for five years,\nunless you sell your car or end your lease. Your \ncar will not qualify for repair under our 5-year', 'replacement with someone who isn‚Äôt an approved windscreen supplier, you don‚Äôt need to get our approval beforehand. However, we‚Äôll only cover a limited amount ‚Äì see ‚ÄòSection 5: Windscreen damage‚Äô on page 20.The excess amounts for windscreen repairs \nand replacement are shown on your car \ninsurance details.\nReplacing parts in your car\nWe may decide to repair your car with \nparts that haven‚Äôt been made by your car‚Äôs \nmanufacturer, but that are of a similar \nstandard. This can include recycled parts. If any part or accessory is not available, the most we‚Äôll pay for that part will be the cost shown in the manufacturer‚Äôs last UK price list (plus reasonable fitting costs).', 'Page 18Damage to your car\nWe‚Äôll put things right if your car is damaged.\nIf you‚Äôre on:\nEssentials\nComprehensive\nComprehensive Plus\nthe cover in this section depends on \nthe type of insurance you have.\nThis cover is not included with: \nThird Party, Fire and Theft\nAccidental damage to your car\nIncluded with:\nEssential Comp Comp+\nIf your car is accidentally damaged, we can \nchoose to either:\n&gt;Repair ‚Äì we‚Äôll repair the damage ourselves \nor pay to repair it.\n&gt;Replace ‚Äì we‚Äôll replace whatever is lost or damaged, if that‚Äôs more cost-effective.\n&gt;Repay ‚Äì we‚Äôll settle your claim by sending a payment.\n‚ÄòHow it works‚Äô on page 6 tells you how we manage repairs and replacements.\nChild car seats', 'Accessories Parts or products specifically \ndesigned to be fitted to your car, including your \nelectric car‚Äôs charging cables and the charger installed at your home. We may treat some accessories as modifications, so please tell us \nabout any changes to your car.\nApproved repairer A repairer in our network of \ncontracted repairers who‚Äôs approved by us to carry out repairs to your car following a claim \nunder this policy.\nApproved windscreen supplier A repairer we \nhave approved and authorised to repair or replace your car‚Äôs windscreen.\nAutomated car Your car where it is lawfully \ndriving itself on roads or other public places in Great Britain. Please note that your car']</t>
-  </si>
-  <si>
     <t>What is considered vandalism?</t>
   </si>
   <si>
     <t>Vandalism is any intentional damage or destruction of property, such as graffiti or breaking windows.</t>
   </si>
   <si>
-    <t>['Section 2: Fire and theft', 'You‚Äôre not covered for\n8Money.\n8Credit or debit cards.\n8Stamps.\n8Tickets.\n8Vouchers.\n8Documents.\n8Securities (such as share or Premium \nBond certificates).\n8Goods or samples for a trade or business.\n8Any property that‚Äôs insured under any other policy.\nVandalism Promise\nIncluded with:\nComp Comp+\nIf you claim for damage to your car that‚Äôs \na result of vandalism, this won‚Äôt affect the \nNo Claim Discount on this policy.\nWhat happens if you claim\nIf you claim, you‚Äôll need to:\n&gt;Pay the excess that applies to accidental \ndamage claims when the car is unattended.\n&gt;Report the vandalism to the police. To do this, \ncall 101 (unless it‚Äôs an emergency).\n&gt;Get a crime reference number from the', 'Road Traffic Act.\n Government Action includes:\n‚Ä¢ Martial law, confiscation, nationalisation, requisition or destruction or damage of property.\n These actions carried out by or under the \norder of:\n‚Ä¢ Any government or public or local authority.\n It also includes any action taken in:\n‚Ä¢ Controlling, preventing, suppressing any activity relating to war.\nRiot\n 8We won‚Äôt cover any loss or damage to your car or property caused by riot or civil commotion outside Great Britain, the Isle  \nof Man or the Channel Islands. \nUse on airfields\n 8We won‚Äôt cover any loss, damage, liability or injury caused by using your car in any area', '&gt;Get a crime reference number from the \npolice and give it to us.\nUntil we have the crime reference number, you may temporarily lose the No Claim Discount on this policy. \nYou‚Äôre not covered for\n8Our Vandalism Promise doesn‚Äôt cover \ndamage caused by another vehicle.Section 6: Personal benefits continued']</t>
-  </si>
-  <si>
     <t>What is the Period of Insurance?</t>
   </si>
   <si>
     <t>The Period of Insurance is the length of time you have insurance cover under the policy.</t>
   </si>
   <si>
-    <t>['during that time. If we‚Äôve provided you with a hire car, you‚Äôll need to pay the Guaranteed Hire Car Plus premium for the whole period \nof insurance.', 'appearance or the performance of your car, \nincluding wheels, suspension, bodywork and engine. Please note this is not a complete list. Modifications include changes made to your \ncar by a previous owner.\nNCD owner The person who has earned the \nNo Claim Discount (NCD) that is in use on this \npolicy.\nPartner Your husband, wife, or civil partner, or \nsomeone you‚Äôre living with as if you‚Äôre married \nto them.\nPeriod of Insurance The length of time you \nhave insurance cover under this policy. You can \nfind this on your certificate of motor insurance\nand car insurance details.\nPolicy The policy is made up of:\n&gt;This booklet.\n&gt;Your car insurance details.', 'Your car insurance \npolicy booklet', 'Page 32Comprehensive Plus\nComp+\nYou‚Äôll have the same level of cover under \n‚ÄòLiability to other people (third parties)‚Äô in section 1 (excluding any cover the main driver has when driving another car) and sections 2, 4 and 5 as you have within the territorial \nlimits in the countries listed in the ‚ÄòCountries where you have minimum cover‚Äô section for up to 90 days in every insured period. \nSee your car insurance details for the actual \nnumber of days the policy includes.\nCar insurance cover in the \nrest of Europe\nThe cover you have in the rest of Europe will \nalso cover:\n&gt;Crossings between countries where your car\nis being transported by a recognised carrier.']</t>
-  </si>
-  <si>
     <t>What should I do if my car is stolen?</t>
   </si>
   <si>
     <t>Report the theft to the police and provide the insurance company with the crime reference number.</t>
   </si>
   <si>
-    <t>['Page 16Theft of car keys \nWe‚Äôll cover your stolen car keys.\nThis cover is included with: \nEssentials\nComprehensive\nComprehensive Plus\nThis cover is not included with: \nThird Party, Fire and Theft\nWhat we‚Äôll do\nWe‚Äôll replace your stolen car keys and the locks \nthey fit, including any locksmith charges.\nYou must take all reasonable steps to protect \nyour car keys from theft.\nIf your keys are stolen, you‚Äôll need to pay the theft excess. You‚Äôll need to report this theft to \nthe police and provide us with the crime reference number.\nCar security\nWe‚Äôll provide cover to reprogram immobilisers, \ninfrared handsets and alarms.\nCar hire\nIf you can‚Äôt drive your car because of stolen car', '8We won‚Äôt cover loss or damage caused by theft or attempted theft of your car if any \nsecurity device fitted to your car by the \nmanufacturer is not operational when your car is left unattended.', 'Page 22New car replacement\nIncluded with:\nComp Comp+\nIf your new car is stolen and not recovered, or \nwritten off, we‚Äôll replace it with one of the same make and model.\nWhen you‚Äôll get this cover\nWe‚Äôll provide this cover so long as:\n&gt;You‚Äôre the first and only registered keeper.\n&gt;If you have Comprehensive cover, your \ncar is less than 1 year old when it‚Äôs stolen or \ndamaged.\n&gt;If you have Comprehensive Plus cover, your \ncar is less than 2 years old when it‚Äôs stolen or damaged. \nWhat we‚Äôll do\nWe‚Äôll replace your car with one of the same \nmake and model if it has:\n&gt;Been reported as stolen to the police and has \nnot been found.\n&gt;Suffered damage that this policy covers, and', 'You‚Äôre not covered for\n8There‚Äôs no cover if anyone in your family or anyone living or staying at your home address takes your keys without your permission, unless you‚Äôve reported it to the police and have a crime reference number.\n8We don‚Äôt cover any reduction in your car‚Äôs \nmarket value because of stolen keys.\n8We don‚Äôt cover losses that aren‚Äôt directly due to your keys being stolen. For example, we don‚Äôt cover loss of use or earnings.Section 2: Fire and theft continued']</t>
-  </si>
-  <si>
     <t>What is the territorial limit of my policy?</t>
   </si>
   <si>
     <t>Great Britain, Northern Ireland, the Channel Islands, and the Isle of Man.</t>
   </si>
   <si>
-    <t>['Page 31Where you can drive\nThe area your policy applies \n(the territorial limits)\nYour car insurance gives you the cover \ndescribed in your car insurance details in:\n&gt;Great Britain.\n&gt;Northern Ireland.\n&gt;the Channel Islands.\n&gt;the Isle of Man.\nIt also covers journeys between these places.\nPlease note: your ‚ÄòLiability for automated cars in \nGreat Britain‚Äô cover only applies in Great Britain, \nwhich is: \n&gt;England.\n&gt;Scotland.\n&gt;Wales.\nPlease see ‚ÄòLiability for automated cars in Great \nBritain‚Äô on page 13 for more details.\nIf you drive in the Republic of Ireland\nIf you use your car in the Republic of Ireland, \nyour car insurance gives you the same cover as', 'You can use this benefit any time in the 21 days following your claim. You‚Äôll need to pay the costs up front, and then send us your receipts or proof of travel. We can only pay you back once we receive these. \nIf you‚Äôre outside the territorial limits\nIf we‚Äôre dealing with your claim under sections 2 or 4 of your policy and the loss or damage \nhappens outside the territorial limits, we‚Äôll either:\n&gt;repay your travel costs up to ¬£50 per day, up to a total of ¬£500 per claim, or \n&gt;treat your claim as if it happened within the \nterritorial limits so long as:\n‚Ä¢you can get your car back to the territorial \nlimits for it to be repaired, or\n‚Ä¢your car is written off, or is stolen and not \nrecovered.', 'within the territorial limits for:\n&gt;Buying or selling your car.\n&gt;Buying or hiring goods or services for your car.\nIf you‚Äôre in a road traffic accident\nYou can use this cover if you‚Äôre in a road traffic \naccident with a moving vehicle, as defined by the Road Traffic Act, where someone else is \nto blame. \nWe‚Äôll pay the costs to help you claim your \nuninsured losses from the person who was to \nblame for the accident. \nExamples of the uninsured losses you may \nclaim for include:\n&gt;Compensation for your death or bodily injury.\n&gt;Accident repair costs if you don‚Äôt have \nComprehensive or Comprehensive Plus cover (we‚Äôll cover repair costs ourselves under these policies).', 'the territorial limits. Please check with the \ncompany that we instruct to give you the hire car to see if you are covered by their insurance.Countries where you have \nminimum cover\nIf you do not have Foreign Use Extension, or if it \nhas been used up, your car insurance only gives you the minimum car insurance required by law for the countries listed below:\n&gt;Any country which is a member of the \nEuropean Union.\n&gt;Any country listed below that the Commission of the European Community approves as meeting the requirements of Article 8 of EC Directive 2009/103/EC on Insurance of Civil Liabilities arising from using cars. \nCountries included\nAndorra, Austria, Belgium, Bosnia and']</t>
-  </si>
-  <si>
     <t>What are the exclusions for mechanical or electrical failure?</t>
   </si>
   <si>
-    <t>['‚Ä¢ To an insured person if the accident is caused by a failure to install safety critical updates to your automated car or its \nsoftware has been altered without the approval of the manufacturer. We may also require an insured person to repay us any amounts that we are required by law to pay.\nCyber\n 8We don‚Äôt cover any loss, damage, legal \nliability, cost or expense caused by:  \n‚Ä¢ Failure, or partial failure of any computer  \nor computer system  .\n‚Ä¢ Loss or partial loss of any electronic data.  \n‚Ä¢ Repair, replacement or restoration of any \nelectronic data  .\n‚Ä¢ A cyber event.Losses we don‚Äôt cover', 'Page 14You‚Äôre not covered under this \nsub-section for\n8We won‚Äôt cover any loss, damage or injury:\n‚Ä¢ That takes place outside of Great Britain. ‚Ä¢ Caused by your automated car driving \nitself at any time or place that the use of \nautomated functions is unlawful. \n‚Ä¢ To the extent that an accident was caused \nor contributed to by any party suffering loss, damage or injury. \n‚Ä¢ To an insured person if the accident is \ncaused by a failure to install safety critical updates to your automated car or its \nsoftware has been altered without the approval of the manufacturer. We may also require an insured person to repay us \nany amounts that we are required by law to pay.', '8We won‚Äôt cover legal costs or expenses.\nYou may be covered for some of these exclusions under other sections of your policy ‚Äì please check your policy carefully. If you have any questions, please get in touch.Fire and theft\nWe‚Äôll put things right if your car is stolen, damaged by an attempted theft, or damaged by fire.\nIf you‚Äôre on:\nThird Party, Fire and Theft\nEssentials\nComprehensive\nComprehensive Plus\nthe cover in this section depends on the type of insurance you have.\nCover for your car\nIncluded with:\nTPFT Essential Comp Comp+\nIf your car is:\n&gt;Stolen.\n&gt;Damaged as a result of theft or attempted \ntheft.\n&gt;Damaged by fire, lightning or an explosion.\nWe can choose to:', 'car will not qualify for repair under our 5-year \nGuarantee if the cause is a lack of maintenance,\nwear and tear, or a subsequent incident. \nWhere we have agreed this with you, \nreasonable and necessary repairs can be carried out at a repairer of your choice. However, you must give us full details of the incident and we must approve the repairer‚Äôs detailed assessment of the repairs before the work begins. We may then make the arrangements for the repairs ourselves. \nWhere the repairs are carried out at a repairer \nof your choice, those repairs will NOT be guaranteed by us even though we may pay for them directly. For the purposes of this policy,']</t>
-  </si>
-  <si>
     <t>Can I choose my own repairer?</t>
   </si>
   <si>
     <t>Yes, you can choose your own repairer, but the repairs will not be guaranteed by the insurance company even if they pay for them directly.</t>
   </si>
   <si>
-    <t>['&gt;Your own choice of appointed representative\n‚Äì however you can‚Äôt choose your own appointed representative if it‚Äôs a contract dispute until it‚Äôs necessary to take your claim to court, or if there‚Äôs a conflict of interest.\nIf you choose an appointed representative who \nisn‚Äôt from a preferred law firm, they must agree \nto our terms of appointment. We‚Äôll only cover \ntheir costs from the date they agree to our terms \nof appointment .\nYou‚Äôll have a separate contract with your appointed representative. If they charge any costs that we don‚Äôt agree, you‚Äôll be responsible for paying these.\nChecking whether your claim has a reasonable \nchance of succeeding\nBefore we go ahead, we must agree with your', 'car will not qualify for repair under our 5-year \nGuarantee if the cause is a lack of maintenance,\nwear and tear, or a subsequent incident. \nWhere we have agreed this with you, \nreasonable and necessary repairs can be carried out at a repairer of your choice. However, you must give us full details of the incident and we must approve the repairer‚Äôs detailed assessment of the repairs before the work begins. We may then make the arrangements for the repairs ourselves. \nWhere the repairs are carried out at a repairer \nof your choice, those repairs will NOT be guaranteed by us even though we may pay for them directly. For the purposes of this policy,', 'If you haven‚Äôt followed any of the terms of this \npolicy, and this prejudices our position, we have the right to: \n&gt;Refuse or withdraw from the claim.\n&gt;Refuse to cover costs ‚Äì even if we‚Äôve already \nagreed to them.\n&gt;Ask you to reimburse costs that we‚Äôve \nalready paid.\nChoosing who represents you\nYou can choose an appointed representative to \nlook after your interests. This will include looking \nafter your interests in any inquiry or other court\nproceedings, or if there‚Äôs any conflict of interest. Your appointed representative can be:\n&gt;From a preferred law firm that we suggest.\n&gt;Your own choice of appointed representative', 'We can choose to: \n&gt;Repair ‚Äì we‚Äôll repair the damage ourselves, or \npay to repair it.\n&gt;Replace ‚Äì we‚Äôll replace whatever is lost or damaged if that‚Äôs more cost-effective than repairing.\n&gt;Repay ‚Äì we‚Äôll settle your claim by sending a payment.\nChild car seats\nIncluded with:\nTPFT Essential Comp Comp+\nIf you have a child car seat fitted to your car\nand your car is damaged by fire or theft, \nor stolen and not recovered, we‚Äôll arrange a replacement, or cover you for the cost of replacing the child car seat with a new one of a similar standard, even if there is no apparent damage. You may be required to provide proof of ownership as part of the claim.Section 1: Liability continued']</t>
-  </si>
-  <si>
     <t>What happens if I don‚Äôt notify Churchill about an accident?</t>
   </si>
   <si>
     <t>If you don't notify Churchill about an accident, it could invalidate your policy or result in claims not being paid in full or at all.</t>
   </si>
   <si>
-    <t>['Before renewal \nYou must tell us about any incident or motoring \noffence that‚Äôs happened since your cover started. For example, if anyone covered by the policy has had:\n&gt;Any motoring convictions, endorsements, \npenalty points, fixed penalties (excluding parking penalties), speed camera offences or disqualifications.\n&gt;Any incidents, thefts or losses, even if they didn‚Äôt claim or were not to blame.\n&gt;Any insurance cancelled by another insurer for fraud or misrepresentation.\nIf you don‚Äôt tell us about changes\nIf you don‚Äôt provide correct and complete \ninformation or inform us of any changes, this could invalidate your policy or mean we don‚Äôt \npay claims in full or at all. \nChanging your policy', 'Page 14You‚Äôre not covered under this \nsub-section for\n8We won‚Äôt cover any loss, damage or injury:\n‚Ä¢ That takes place outside of Great Britain. ‚Ä¢ Caused by your automated car driving \nitself at any time or place that the use of \nautomated functions is unlawful. \n‚Ä¢ To the extent that an accident was caused \nor contributed to by any party suffering loss, damage or injury. \n‚Ä¢ To an insured person if the accident is \ncaused by a failure to install safety critical updates to your automated car or its \nsoftware has been altered without the approval of the manufacturer. We may also require an insured person to repay us \nany amounts that we are required by law to pay.', 'know about the accident as quickly as possible. This will enable us to contact the other party and resolve the entire claim, giving you the best service and keep the costs down.\nHow it works\nTo get the ball rolling, we‚Äôll need to know things like:\n&gt;Your personal details.\n&gt;Your policy number.\n&gt;Your car registration number.\n&gt;A description of the loss or damage.\n&gt;If you‚Äôve been in an accident, the other \ndriver‚Äôs details.\nPlease have these handy when you get in touch.Other information you need to send us\nIf you get any communication such as any', '&gt;For a purpose that‚Äôs not allowed on the policy\n(as shown on your certificate of motor insurance).\nYou can find full details of what‚Äôs not covered by the policy in each cover section, and in ‚ÄòLosses \nwe don‚Äôt cover‚Äô on page 33.\nDoes Churchill have approved repairers? \nChurchill customers have access to a national \nnetwork of approved repairers. If \nyour car  is \nrepaired by one of these, they‚Äôll deal with all aspects of your repair. What is DriveSure?\nDriveSure is our telematics insurance product. \nIt‚Äôs designed to capture how, when and where your car is driven, based on driver-monitoring technology. We use it to understand your driving style and give you feedback. This means']</t>
-  </si>
-  <si>
     <t>What is the purpose of a Green Card?</t>
   </si>
   <si>
     <t>The purpose of a Green Card is for traveling abroad and providing proof of insurance coverage.</t>
   </si>
   <si>
-    <t>['depends on the type of policy you have and \nwhere you‚Äôre driving. You can find full details \nin ‚ÄòWhere you can drive‚Äô on page 31.\nYou may need a Green Card if you‚Äôre travelling \nabroad. If you need one, please get in touch before you travel. We also recommend you take \na European Accident Statement with you. You can\nget one at churchill.com/eas-form.pdf\nAre my electric car‚Äôs charging cables covered?\nYour home charger and charging cables are \nconsidered an accessory to your car. This means\nthey‚Äôre covered under ‚ÄòSection 2: Fire and theft‚Äô or \n‚ÄòSection 4: Accidental damage‚Äô of your policy. \nYou‚Äôre also covered for any accidents to others', '&gt;This booklet.\n&gt;Your car insurance details.\n&gt;Your certificate (or certificates) of motor \ninsurance.\n&gt;The Green Flag breakdown cover policy \nbooklet ‚Äì where this applies. \n&gt;The DriveSure terms and conditions ‚Äì where they apply. \nPolicyholder The person named as the \npolicyholder on your car insurance details.Removable electronic equipment Electronic \nequipment that is designed to be fitted to, and used in, your car, which can be removed when \nnot in use. We do not cover speed assessment detection devices or any personal portable electronic or entertainment equipment (this may be covered under the Personal Belongings cover in Section 6 of this policy).', 'Certificate of motor insurance This document \nprovides evidence that you have taken out the insurance you must have by law. It shows who can drive your car and the purposes that it can \nbe used for.\nConvertible A motor car with a removable or \nretractable roof. These may be referred to as \ncabriolets, roadsters, soft-tops or hard-tops.\nCourtesy car A small hatchback car, or similar \ncar, that an approved repairer supplies to you \ntemporarily on our behalf. Cyber event An unauthorised, malicious or \ncriminal act that creates, or intends to create, \nan outcome that includes, but is not limited to:\n&gt;Interruption to electronic communications.\n&gt;Corruption, unauthorised access to, or theft', 'may choose which law will apply to this policy. \nUnless both parties agree otherwise, English law will apply. However, if you are resident in Jersey, Guernsey, Alderney or the Isle of Man, the law of the island where you are resident will always apply to your policy and any dispute in relation to it will be within the jurisdiction of that island‚Äôs relevant court. We‚Äôve supplied this policy and other information to you in English and we‚Äôll continue to communicate with you in English.\nGiving you a recommendation We have not \ngiven you a personal recommendation as to \nwhether this policy is suitable for your specific \nneeds. Just to let you know, our consultants may']</t>
-  </si>
-  <si>
     <t>How do I contact the motor legal helpline?</t>
   </si>
   <si>
     <t>You can contact the motor legal helpline by calling 0345 246 2408.</t>
   </si>
   <si>
-    <t>['How much am I covered for?\nWe‚Äôll provide cover up to the amount shown in ‚ÄòWhat your cover includes‚Äô on page 8. The amount shown includes any VAT payable, and is the most we‚Äôll pay for all claims, including any appeal or counterclaim to do with the same incident.Section 7: Motor Legal Cover continued\nPage 24The motor legal helpline\nYou can ring the 24-hour legal helpline on \n0345 246 2408 for confidential legal advice on any private motoring legal problem. It doesn‚Äôt matter whether you intend to claim for the problem or not. \nThe helpline doesn‚Äôt advise on any claim you \nmake under your car insurance policy. It can only help with problems to do with laws that apply in the UK.', 'information: www.financial-ombudsman.org.uk\nIf your complaint is to do with your \nMotor Legal Cover\nIf your complaint relates to Section 7: Motor \nLegal Cover, you can refer your complaint to arbitration instead (where an independent person, known as an arbitrator, makes a decision to settle the dispute). The arbitrator will be a solicitor or barrister or other suitably qualified person that you and we agree on. If you and we cannot agree, then we‚Äôll ask the Chartered Institute of Arbitrators to decide. The arbitrator‚Äôs decision will be final, and whoever doesn‚Äôt win will have to pay all costs and expenses.We‚Äôre here to support you when', 'Need to claim?\n0345 878 6261\nWindscreen claims\n0800 328 9150\nIf you have Essentials, Comprehensive \nor Comprehensive Plus cover\nMotor legal helpline\n0345 246 2408\nIf you have Motor Legal Cover\nDriveSure help\nEmail\nSupport@churchill.com\nCall\n0345 878 6375\nIf you have a question about telematicsHelp with anything else\nFAQs\nchurchill.com/faqs\nCall\n0345 877 6680\nIf you would like a Braille, large print or audio version \nof your documents, please let us know.\nChurchill insurance policies are underwritten by U K Insurance Limited, Registered office: The Wharf, Neville Street, Leeds,', 'Page 6Making a claim\nIf you need to claim\nThese steps will help you and enable us to \nprocess your claim quickly.\nHere are some important numbers \nyou‚Äôll need if you have an accident\nNeed to claim?\n0345 878 6261\nWindscreen claims\n0800 328 9150\nIf you have Essentials, Comprehensive \nor Comprehensive Plus cover\nMotor legal helpline\n0345 246 2408\nIf you have Motor Legal Cover\nHelp with anything else\n0345 877 6680\nStore these numbers in your phone so you have them available if needed. Even if you don‚Äôt make a claim on your car, it‚Äôs important to let us']</t>
-  </si>
-  <si>
     <t>Are there any charges for storing my car?</t>
   </si>
   <si>
     <t>No, there are no charges for storing your car as long as it is necessary.</t>
   </si>
   <si>
-    <t>['Removing, delivering and storing your car\nIf we‚Äôre dealing with your claim under sections 2 \nor 4 of your  policy and your car can‚Äôt be driven, \nwe‚Äôll cover reasonable costs to take it to the nearest suitable repairer. \nWe‚Äôll help you and your passengers make \narrangements to get home, to your original destination or take you to a safe place.\nWe‚Äôll also cover the reasonable cost of delivering your car to you (at the address shown \non your car insurance details) after it‚Äôs repaired.\nIf we need to put your car into safe storage at \nany time, we‚Äôll cover the reasonable cost of storage.\nIf your car is written off\nIf your car is written off and we agree to settle', 'car insurance details', 'Car sharing\nThe policy covers anyone insured to drive \nyour car as part of a car sharing arrangement \n(carrying passengers for payment). This is so long as: \n&gt;Your car isn‚Äôt made or adapted to carry more \nthan 8 passengers and a driver. \n&gt;You‚Äôre not carrying the passengers as part of a business. \n&gt;You‚Äôre not making a profit from the passengers‚Äô payments or making a profit from allowing someone to drive.\n&gt;You‚Äôre not renting your car out or using a \npeer-to-peer hire scheme to do so. \nIf you‚Äôre not sure whether we‚Äôll cover your car if \nit‚Äôs used as part of a car sharing arrangement, please get in touch.\nWhen we can act on your behalf\nWe‚Äôre entitled to do either of the following:', '&gt;the cost to fix it would be uneconomical, \nbased on its market value.\nYour car The car described in your car \ninsurance details. This includes your car‚Äôs accessories and spare parts if they are:\n&gt;On your car or in it.\n&gt;In your locked private garage.\n&gt;Plugged into your car.\nPage 5']</t>
-  </si>
-  <si>
     <t>What happens if my car is leased?</t>
   </si>
   <si>
     <t>If your car is leased, any claims will be paid to the lease company as they are the legal owners of the car. If the car cannot be repaired, claims will be paid to the legal owner. If you have the option to become the full owner at the end of the agreement, any remaining balance will be paid to you. After the claim is settled, the car becomes the property of the insurance company and the cover ends unless agreed otherwise.</t>
   </si>
   <si>
-    <t>['it, we‚Äôll pay any claims to the lease company, \nbecause they are the legal owners of the car.\nIf your car can‚Äôt be repaired and you‚Äôre buying \nit on hire purchase or a similar agreement, we‚Äôll \npay any claims to the legal owner. We‚Äôll only pay any remaining balance to you if you have the option to become the full owner at the end of the agreement.', 'Once we settle your claim, your car will become \nour property and you must send us the registration document. All cover will then end unless we agree differently.', 'a 4/5 door standard saloon may be provided.\n&gt;If your car has 6 or more seats ‚Äì a hire car up \nto a Mini MPV may be provided.\nWe‚Äôll always try to provide you with a hire car\nthat‚Äôs a similar size to your car, but sometimes \none may not be available. We cannot guarantee that your hire car will be the same as \nyour car in terms of its size, type, value or status.\nWhen am I covered? \nIf we‚Äôre dealing with your claim under sections 2 or 4 of your policy, we‚Äôll arrange for a hire car \ncompany to provide you with a hire car when \nboth of the following apply:\n&gt;Your car is damaged because of an \naccident, fire or theft, or if it‚Äôs stolen and not recovered.', 'Page 34If your car is removed or seized by an authority\n 8We won‚Äôt cover any loss or damage caused \nby a government agency or other authority that legally takes, keeps or destroys your car.\n 8 If you‚Äôre driving or using another car and it‚Äôs \ntaken by, or on behalf of, any government or other authority, we won‚Äôt provide cover to get it released.\nContracts\n 8We won‚Äôt cover any liability under any separate agreement or contract you‚Äôve made, unless you‚Äôd have been responsible even if that agreement or contract didn‚Äôt exist.\nRadioactivity\n 8We won‚Äôt cover any loss or damage to property, any direct or indirect loss, or any expense, or any liability caused, or contributed to, by:']</t>
-  </si>
-  <si>
     <t>How can I contact Churchill for help with anything else?</t>
   </si>
   <si>
     <t>You can call 0345 878 6375 or email support@churchill.com.</t>
   </si>
   <si>
-    <t>['Need to claim?\n0345 878 6261\nWindscreen claims\n0800 328 9150\nIf you have Essentials, Comprehensive \nor Comprehensive Plus cover\nMotor legal helpline\n0345 246 2408\nIf you have Motor Legal Cover\nDriveSure help\nEmail\nSupport@churchill.com\nCall\n0345 878 6375\nIf you have a question about telematicsHelp with anything else\nFAQs\nchurchill.com/faqs\nCall\n0345 877 6680\nIf you would like a Braille, large print or audio version \nof your documents, please let us know.\nChurchill insurance policies are underwritten by U K Insurance Limited, Registered office: The Wharf, Neville Street, Leeds,', 'If you‚Äôd prefer to write to us, please send your \nletter to Customer Relations Manager, Churchill Court, Westmoreland Road, Bromley BR1 1DP.If you have Green Flag breakdown cover and your complaint is about your breakdown cover, please let us know when you get in touch. \nOur staff will do everything they can to support \nyou. We‚Äôll aim to resolve most issues within three working days of receiving your complaint.\nIf your complaint can‚Äôt be resolved within three \nworking days, we‚Äôll contact you to let you know who‚Äôll be dealing with it, and what the next steps are.\nWe‚Äôll keep you updated regularly. You‚Äôll also', '&gt;For a purpose that‚Äôs not allowed on the policy\n(as shown on your certificate of motor insurance).\nYou can find full details of what‚Äôs not covered by the policy in each cover section, and in ‚ÄòLosses \nwe don‚Äôt cover‚Äô on page 33.\nDoes Churchill have approved repairers? \nChurchill customers have access to a national \nnetwork of approved repairers. If \nyour car  is \nrepaired by one of these, they‚Äôll deal with all aspects of your repair. What is DriveSure?\nDriveSure is our telematics insurance product. \nIt‚Äôs designed to capture how, when and where your car is driven, based on driver-monitoring technology. We use it to understand your driving style and give you feedback. This means', 'Page 2FAQs  3\nGlossary  4\nMaking a claim  6\nWhat your cover includes  8\nSection 1: Liability  11\nSection 2: Fire and theft  14\nSection 3: Courtesy car  17\nSection 4: Accidental damage  18\nSection 5: Windscreen damage  20\nSection 6: Personal benefits  21\nSection 7: Motor Legal Cover  23\nSection 8: Guaranteed Hire Car Plus  28\nSection 9: Protected No Claim Discount  30Where you can drive  31\nLosses we don‚Äôt cover  33\nOther conditions you need to know about  36\nHow the policy works  37\nEverything else  41\nIf you have a complaint  42\nIf you‚Äôre in an accident  43\nHow to get in touch  Back coverContentsWelcome to Churchill\nThis booklet tells you about your car insurance\nAbout the policy']</t>
-  </si>
-  <si>
     <t>What is the 5-year guarantee for repairs?</t>
   </si>
   <si>
     <t>The 5-year guarantee for repairs covers parts, materials, and workmanship provided by the approved repairer and is guaranteed for five years, unless the car is sold or the lease ends.</t>
-  </si>
-  <si>
-    <t>['car will not qualify for repair under our 5-year \nGuarantee if the cause is a lack of maintenance,\nwear and tear, or a subsequent incident. \nWhere we have agreed this with you, \nreasonable and necessary repairs can be carried out at a repairer of your choice. However, you must give us full details of the incident and we must approve the repairer‚Äôs detailed assessment of the repairs before the work begins. We may then make the arrangements for the repairs ourselves. \nWhere the repairs are carried out at a repairer \nof your choice, those repairs will NOT be guaranteed by us even though we may pay for them directly. For the purposes of this policy,', 'Page 7Making a claim\nHow repairs and replacements work\nThis page explains how we‚Äôll repair your car. \nWe‚Äôll only do this if it makes financial sense for \nus to do so. For more details, see: \n&gt;Section 2: Fire and theft on page 14. \n&gt;Section 4: Accidental damage on page 18. \n&gt;Section 5: Windscreen damage on page 20.\nRepairs to your car\nIf our approved repairer carries out the repairs, \nyou do not need an estimate, and you will benefit\nfrom our 5-year Guarantee. This means parts, \nmaterials and workmanship provided by our \napproved repairer are guaranteed for five years,\nunless you sell your car or end your lease. Your \ncar will not qualify for repair under our 5-year', 'have repaired your car. \n&gt;If you use your own repairer, for up to 21 days in a row while they‚Äôre repairing your car. \nIf your car is written off, or is stolen and not recovered\nWe‚Äôll provide you with a hire car for whichever is \nshortest of these two periods: \n&gt;Up to 21 days in a row.\n&gt;Up to 5 days after our first (or only) payment \nhas been issued to settle your claim.Section 8: Guaranteed Hire Car Plus', 'Amount of time you can \nhave the car for if you use an approved repairerDuration of repair\nAmount of time you can have the car for if you use a different repairer21 days\nTravel costs¬£50 per day, \nup to a total of ¬£500 per claim\nSection 9: Protected \nNo Claim Discount \nProtected No Claim \nDiscount (NCD)Optional ‚Äì check your car insurance details\nMaximum number of claims allowed2 claims in 3 yearsWhat your cover includes continued\nPage 10']</t>
   </si>
   <si>
     <t>The exclusions for mechanical or electrical failure are:  Failure, or partial failure of any computer or computer system, Loss or partial loss of any electronic data, Repair, replacement or restoration of any electronic data, A cyber event</t>
@@ -830,533 +692,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6819E188-67CD-074F-8ADC-97DC940844DA}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="120.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>68</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>70</v>
       </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="C25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>76</v>
       </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B39" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>79</v>
       </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B41" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
         <v>82</v>
       </c>
-      <c r="C28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>83</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>85</v>
       </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B44" t="s">
         <v>86</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
         <v>88</v>
       </c>
-      <c r="C30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>89</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>91</v>
       </c>
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B47" t="s">
         <v>92</v>
-      </c>
-      <c r="B32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/dataset_testing/dataset_for_testing.xlsx
+++ b/dataset_testing/dataset_for_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/Desktop/github/Athina_AI_project/dataset_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5546C147-A3DC-0046-95D8-4ED0C1E041C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA7B433-B20D-D64A-B8D8-8D285AB51C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{2C7920E7-42B5-3442-86F1-F4BF7B70CCCA}"/>
   </bookViews>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6819E188-67CD-074F-8ADC-97DC940844DA}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
